--- a/sequences/23_localizer.xlsx
+++ b/sequences/23_localizer.xlsx
@@ -43,772 +43,772 @@
     <t>dog</t>
   </si>
   <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
     <t>face/face009.png</t>
   </si>
   <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
     <t>face/face002.png</t>
   </si>
   <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
     <t>car/car014.png</t>
   </si>
   <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
   </si>
   <si>
     <t>flower/flower008.png</t>
   </si>
   <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
   </si>
   <si>
     <t>face/face000.png</t>
   </si>
   <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
   </si>
   <si>
     <t>face/face023.png</t>
   </si>
   <si>
-    <t>car/car030.png</t>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
   </si>
   <si>
     <t>flower/flower025.png</t>
   </si>
   <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
   </si>
   <si>
     <t>flower/flower027.png</t>
   </si>
   <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
+    <t>car/car021.png</t>
   </si>
   <si>
     <t>dog/dog020.png</t>
   </si>
   <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
   </si>
   <si>
     <t>car/car035.png</t>
   </si>
   <si>
-    <t>car/car043.png</t>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
   </si>
   <si>
     <t>car/car045.png</t>
   </si>
   <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
     <t>face/face045.png</t>
   </si>
   <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
     <t>dog/dog044.png</t>
   </si>
   <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
   </si>
   <si>
     <t>flower/flower036.png</t>
   </si>
   <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
     <t>dog/dog039.png</t>
   </si>
   <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
   </si>
   <si>
     <t>face/face041.png</t>
   </si>
   <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
     <t>face/face032.png</t>
   </si>
   <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
     <t>car/car044.png</t>
   </si>
   <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
   </si>
   <si>
     <t>face/face060.png</t>
   </si>
   <si>
-    <t>flower/flower050.png</t>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
   </si>
   <si>
     <t>car/car063.png</t>
   </si>
   <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
   </si>
   <si>
     <t>face/face061.png</t>
   </si>
   <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
     <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.545195370902306</v>
+        <v>1.681634287736712</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.831743136154258</v>
+        <v>1.649381726188836</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.293678745601367</v>
+        <v>1.439021520599591</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.369837924981384</v>
+        <v>1.520927826851753</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.460307413940505</v>
+        <v>1.459422928284404</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.517726974888591</v>
+        <v>1.370053279045288</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.322681564962927</v>
+        <v>1.638200265064071</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.92030255937122</v>
+        <v>1.188220889828285</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.202429568690225</v>
+        <v>1.423419649007528</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.701499608139365</v>
+        <v>1.707366054846155</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.258704124958159</v>
+        <v>1.384354368066789</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.565290321781571</v>
+        <v>1.357573576397428</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.677155366039234</v>
+        <v>1.708849915775702</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.742149866795893</v>
+        <v>1.816764274407113</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.54687852733876</v>
+        <v>1.491226869516015</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.675416851612553</v>
+        <v>1.701494613435264</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.331565319519922</v>
+        <v>1.531875170734952</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.469900637888355</v>
+        <v>1.5449494022857</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.442157334149372</v>
+        <v>1.532172806151861</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.808314099132158</v>
+        <v>1.709203070699292</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.380897216003124</v>
+        <v>1.670179677945303</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.233092018207482</v>
+        <v>1.466236563519954</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.455462832059155</v>
+        <v>1.479428351635975</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.847904518430826</v>
+        <v>1.27356359012251</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.553110069345034</v>
+        <v>1.586343552658743</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.495181959490329</v>
+        <v>1.583030883049685</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.51035234985302</v>
+        <v>1.716041901578597</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.453524748493171</v>
+        <v>1.47518640376979</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.436416797630244</v>
+        <v>1.14560695728326</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.513823060734937</v>
+        <v>1.382791353091722</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.510450374220019</v>
+        <v>1.39194947289768</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.49120694774477</v>
+        <v>1.309123340779057</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.571976997727975</v>
+        <v>1.341781712131531</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.510067537193393</v>
+        <v>1.702981512974693</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.59865473776833</v>
+        <v>1.462613717925374</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.475151048208044</v>
+        <v>1.48283677789609</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.457894238405845</v>
+        <v>1.56065256444226</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.725523664730782</v>
+        <v>1.595318022987055</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.342721890462043</v>
+        <v>1.222922323607618</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.747096434050014</v>
+        <v>1.497301162225743</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.64610701107891</v>
+        <v>1.337192223659614</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.58529513544857</v>
+        <v>1.548460276998129</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.757619259782508</v>
+        <v>1.453617068506456</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.267610743607962</v>
+        <v>1.397870404711314</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.694098418624844</v>
+        <v>1.75510676934341</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.252651066042433</v>
+        <v>1.669589778308973</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.334310420622833</v>
+        <v>1.38412954341306</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.030470283776668</v>
+        <v>1.317641137970452</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.500315959116763</v>
+        <v>1.533261831173408</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.453711325847685</v>
+        <v>1.609835209467792</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.26639800092679</v>
+        <v>1.249489953561926</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1.589213383879036</v>
+        <v>1.523619749984498</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.524753680028611</v>
+        <v>1.697442777419527</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.520950502219487</v>
+        <v>1.658446138057848</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.16337464426403</v>
+        <v>1.40699878859947</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.568628911439848</v>
+        <v>1.730528308698837</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.598564184667455</v>
+        <v>1.698061733182877</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.634686248916009</v>
+        <v>1.597424444802159</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.375204363598005</v>
+        <v>1.523039467119059</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.594854701304939</v>
+        <v>1.463988410240972</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.540319770110487</v>
+        <v>1.239318377209578</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.464145426615595</v>
+        <v>1.474954268771055</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.563638546529036</v>
+        <v>1.334723946192933</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.456546558190143</v>
+        <v>1.402898495845433</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.724803817965292</v>
+        <v>1.329311496474489</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.410113466875439</v>
+        <v>1.455750058236915</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.650225239854659</v>
+        <v>1.362429810836855</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.547271965882476</v>
+        <v>1.64525646596684</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.592768302206583</v>
+        <v>1.577346150553983</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.590677401941247</v>
+        <v>1.655580419334939</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.575104022383772</v>
+        <v>1.403122823360034</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.336650785091625</v>
+        <v>1.305184746329747</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.483973875017466</v>
+        <v>1.607256957327501</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.720992610989807</v>
+        <v>1.010912997265837</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.63345651320882</v>
+        <v>1.586350956073113</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.444019906851384</v>
+        <v>1.532255167559005</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.745767627445217</v>
+        <v>1.774365700583465</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.537763030222468</v>
+        <v>1.337889708345893</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.502196208506463</v>
+        <v>1.345970763091111</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.508530065560546</v>
+        <v>1.527904542427904</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.585752531459123</v>
+        <v>1.370638468582447</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.316508648939996</v>
+        <v>1.421480198365355</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.292805962293522</v>
+        <v>1.466659981692146</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.492913820424983</v>
+        <v>1.453512147300827</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.322994877180379</v>
+        <v>1.33408955396906</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.450771985220991</v>
+        <v>1.441901740153689</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.652290502640545</v>
+        <v>1.911716705860729</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.445815166914979</v>
+        <v>1.575967712059727</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.624760236217602</v>
+        <v>1.405820356071931</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.285730378873681</v>
+        <v>1.190241521711537</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.417683682614833</v>
+        <v>1.583369819676526</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.423016738381901</v>
+        <v>1.549880596294044</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.321328606039357</v>
+        <v>1.685912460506574</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.602519725476751</v>
+        <v>1.676884323530395</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.266256142857053</v>
+        <v>1.591446698621419</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.319235587221887</v>
+        <v>1.337905541280538</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.491062382827653</v>
+        <v>1.666964565580815</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.661590204023358</v>
+        <v>1.302219374229238</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.32558679899256</v>
+        <v>1.371256640882976</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.574694524882702</v>
+        <v>1.281364451410478</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.574717828062627</v>
+        <v>1.544865086058241</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.466180710853655</v>
+        <v>1.458429766248978</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.57792579721418</v>
+        <v>1.505202688196132</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.409362869096184</v>
+        <v>1.698176978427461</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.460344998047047</v>
+        <v>1.506331071092991</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.330475667707147</v>
+        <v>1.321562969599448</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.502714445575365</v>
+        <v>1.365957201413477</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.407722969474591</v>
+        <v>1.596389199546614</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.365472737935018</v>
+        <v>1.563302915688326</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.422703834185618</v>
+        <v>1.285609731561609</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.526029980319925</v>
+        <v>1.701369959480045</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.643840266688707</v>
+        <v>1.388831002728306</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.251399413046232</v>
+        <v>1.412805793975696</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.272039156151392</v>
+        <v>1.576595172157256</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.625056202119246</v>
+        <v>1.494042015660212</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.484674626989404</v>
+        <v>1.551525883203989</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.514500358375691</v>
+        <v>1.500772708599263</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.389128086740975</v>
+        <v>1.499895880647286</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.66640767257494</v>
+        <v>1.422151183801812</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.293131456902615</v>
+        <v>1.360833700294534</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.309789678243023</v>
+        <v>1.412901391817309</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.335491599519936</v>
+        <v>1.332252326759568</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.672679850751468</v>
+        <v>1.57112141690976</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.458239017363889</v>
+        <v>1.192474549250805</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.562909657627955</v>
+        <v>1.763793527007904</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.481716017193293</v>
+        <v>1.447507508397656</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.380324074414994</v>
+        <v>1.542987907796269</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.423662381414077</v>
+        <v>1.252718298542028</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.344364520538544</v>
+        <v>1.335849956751987</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.346650467704438</v>
+        <v>1.504238891282403</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.433889734543256</v>
+        <v>1.235429600197391</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.538822687782916</v>
+        <v>1.686334970503283</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.432578174074544</v>
+        <v>1.519147937905897</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.342564194278918</v>
+        <v>1.687651040291014</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.456214863596395</v>
+        <v>1.437579256700489</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.257085992611784</v>
+        <v>1.463777598277572</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.380434615396524</v>
+        <v>1.384023817109475</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.396536203984721</v>
+        <v>1.646763913146474</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.339726630266231</v>
+        <v>1.606438640509756</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.558544619329542</v>
+        <v>1.320017738546419</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.426721010102693</v>
+        <v>1.649605137828843</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.576768094135156</v>
+        <v>1.456513501000069</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.454587045539894</v>
+        <v>1.476074680342535</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.461252549256841</v>
+        <v>1.575996685591443</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.497075741892554</v>
+        <v>1.556225641826682</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.517997407793066</v>
+        <v>1.493184528628871</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.455637408205126</v>
+        <v>1.41014723350297</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.451182782790911</v>
+        <v>1.386347074063141</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.569225013477367</v>
+        <v>1.374013857796882</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.675815583138128</v>
+        <v>1.527147413070903</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.384646931138852</v>
+        <v>1.54524300076267</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.574345102179642</v>
+        <v>1.490149872558881</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1.727962778855505</v>
+        <v>1.372222443229351</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.815267055485561</v>
+        <v>1.470936842983649</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.354960115785861</v>
+        <v>1.269265170660732</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.500218053133835</v>
+        <v>1.48058414808814</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.532947303835158</v>
+        <v>1.574672876728601</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.568833552823459</v>
+        <v>1.288792180959653</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.778048950141613</v>
+        <v>1.641623096926864</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.486992655618858</v>
+        <v>1.39759036031439</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.543832552494893</v>
+        <v>1.626080727823025</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.333183533059857</v>
+        <v>1.29028102266695</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.055233573491121</v>
+        <v>1.597131674368356</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>1.201119341468051</v>
+        <v>1.519763584212694</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.520714448618875</v>
+        <v>1.496990958594301</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.575498869010637</v>
+        <v>1.539770738542936</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.569789376769527</v>
+        <v>1.526779097799183</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.547714958766375</v>
+        <v>1.060831331373588</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.525227840770081</v>
+        <v>1.389399184019621</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.444821426668713</v>
+        <v>1.549051301161421</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.431921420836482</v>
+        <v>1.526614620159525</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.30636535193256</v>
+        <v>1.459277028694949</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.409799692640759</v>
+        <v>1.635595871615891</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.578329971092937</v>
+        <v>1.672524338235923</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.412215732066361</v>
+        <v>1.660550419220215</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.585666829388024</v>
+        <v>1.277626409374213</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.38906979345938</v>
+        <v>1.856728799299719</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.396676532800296</v>
+        <v>1.288450913026306</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.555909737738006</v>
+        <v>1.651596372255107</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.670525845627422</v>
+        <v>1.341521999986909</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.52892528682976</v>
+        <v>1.653853656582953</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.411822553857208</v>
+        <v>1.569419176833623</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.545921997165789</v>
+        <v>1.361206793884673</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.35151794765698</v>
+        <v>1.165705353243033</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.674242131755664</v>
+        <v>1.261141633581087</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.77995563758055</v>
+        <v>1.448263732022443</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.611323409426111</v>
+        <v>1.510549387064871</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.355191046052349</v>
+        <v>1.408839908987394</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.494866558858208</v>
+        <v>1.335453736543658</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.69870065648725</v>
+        <v>1.389260616308114</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.490222886539231</v>
+        <v>1.445019216721664</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.598498417947264</v>
+        <v>1.448763209761081</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.570870565612884</v>
+        <v>1.57766468699731</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.426358365305852</v>
+        <v>1.402404650512693</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.543361678688499</v>
+        <v>1.558718910557757</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.628030666700497</v>
+        <v>1.755529489179018</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.621783248391543</v>
+        <v>1.737160308369197</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.430963438777556</v>
+        <v>1.316511078016242</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.768454305126562</v>
+        <v>1.565520957786968</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>1.517404651815465</v>
+        <v>1.68537081176258</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.610053018134213</v>
+        <v>1.392761286298702</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.523963712836546</v>
+        <v>1.515578691847608</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.703338212439335</v>
+        <v>1.58404123619959</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.439405893155959</v>
+        <v>1.609100195427466</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.674891747476171</v>
+        <v>1.567505923572274</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.458750599953763</v>
+        <v>1.455192242305973</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.364129726431439</v>
+        <v>1.498202209866197</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>1.509559489447945</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.474294071636075</v>
+        <v>1.628901918595379</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.59974636257639</v>
+        <v>1.332906632055077</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.60860660977473</v>
+        <v>1.373066205195019</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.709344807581534</v>
+        <v>1.505147977082786</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>1.62308413671726</v>
+        <v>1.699032735201915</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.527173871301506</v>
+        <v>1.465365354569856</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.639247049390168</v>
+        <v>1.666644289795263</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.761777901712033</v>
+        <v>1.747028496779143</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.578724389518033</v>
+        <v>1.30858525452037</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.428109395270801</v>
+        <v>1.542918014719417</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.639393750918864</v>
+        <v>1.664086970113776</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.461232783993133</v>
+        <v>1.563713169530391</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.444192911517614</v>
+        <v>1.475804794211617</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.673953655440193</v>
+        <v>1.326456101440571</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.164650450775091</v>
+        <v>1.426645189880344</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.587991846920399</v>
+        <v>1.403130198665003</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.298723061520481</v>
+        <v>1.355741728608094</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.635069073088839</v>
+        <v>1.527936221277186</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.525261337554328</v>
+        <v>1.367586567068286</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.473898690621088</v>
+        <v>1.4196820334304</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.30444418079538</v>
+        <v>1.54300389341804</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.578848439858515</v>
+        <v>1.587851825690973</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.730032748729282</v>
+        <v>1.314349991133465</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.593471869093226</v>
+        <v>1.487913452652918</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.371428919992054</v>
+        <v>1.451320134300387</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.410037536478485</v>
+        <v>1.766317155936938</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.832517622476495</v>
+        <v>1.315610820545415</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.413223478951835</v>
+        <v>1.602794769253544</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.185093911160151</v>
+        <v>1.591873225392584</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.470961510844814</v>
+        <v>1.486773055921869</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.303257673465779</v>
+        <v>1.474976910408393</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.557168432606675</v>
+        <v>1.419616897690155</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.658096291463924</v>
+        <v>1.347336847358945</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.267249552744435</v>
+        <v>1.57150406871559</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.403878773675794</v>
+        <v>1.171645571017008</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.491861027858861</v>
+        <v>1.370966953448791</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.396620897685156</v>
+        <v>1.507439964824364</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.666031651035914</v>
+        <v>1.519645973488469</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.673201704612996</v>
+        <v>1.451941639860079</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.723222943787828</v>
+        <v>1.278858794744865</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.77541147354359</v>
+        <v>1.501492888256174</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.587665220621695</v>
+        <v>1.533640039469252</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.621054731763401</v>
+        <v>1.299567679905928</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.520824713469306</v>
+        <v>1.50666047062597</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.148944896509704</v>
+        <v>1.76219474662487</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.554089592558859</v>
+        <v>1.67186286280413</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.508049168287508</v>
+        <v>1.561017802449876</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.279531544512535</v>
+        <v>1.606910857277146</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/23_localizer.xlsx
+++ b/sequences/23_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.681634287736712</v>
+        <v>1.315168255916855</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.649381726188836</v>
+        <v>1.449406641080082</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.439021520599591</v>
+        <v>1.419244457393225</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.520927826851753</v>
+        <v>1.380146436173225</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.459422928284404</v>
+        <v>1.573142850448816</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.370053279045288</v>
+        <v>1.60896240676547</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.638200265064071</v>
+        <v>1.557926613458244</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.188220889828285</v>
+        <v>1.444947626902247</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.423419649007528</v>
+        <v>1.800483322056661</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.707366054846155</v>
+        <v>1.342243495959237</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.384354368066789</v>
+        <v>1.636752736797312</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.357573576397428</v>
+        <v>1.39564641427271</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.708849915775702</v>
+        <v>1.361673976352876</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.816764274407113</v>
+        <v>1.346385509987721</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.491226869516015</v>
+        <v>1.418319358232129</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.701494613435264</v>
+        <v>1.534573559931547</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.531875170734952</v>
+        <v>1.454344699053752</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.5449494022857</v>
+        <v>1.407768946728607</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.532172806151861</v>
+        <v>1.578936648704025</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.709203070699292</v>
+        <v>1.671041947439081</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.670179677945303</v>
+        <v>1.337959458147035</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.466236563519954</v>
+        <v>1.354274121056571</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.479428351635975</v>
+        <v>1.390740581639433</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.27356359012251</v>
+        <v>1.583083969344233</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.586343552658743</v>
+        <v>1.514956222287836</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.583030883049685</v>
+        <v>1.631902050503122</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.716041901578597</v>
+        <v>1.501342888777367</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.47518640376979</v>
+        <v>1.698978201520572</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.14560695728326</v>
+        <v>1.525418189044541</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.382791353091722</v>
+        <v>1.958809046591122</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.39194947289768</v>
+        <v>1.557291857080025</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.309123340779057</v>
+        <v>1.484086560220491</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.341781712131531</v>
+        <v>1.580158470759341</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.702981512974693</v>
+        <v>1.442495102870368</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.462613717925374</v>
+        <v>1.507683657075702</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.48283677789609</v>
+        <v>1.212177817316381</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.56065256444226</v>
+        <v>1.672661369586162</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.595318022987055</v>
+        <v>1.020706261060449</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.222922323607618</v>
+        <v>1.726541433198344</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.497301162225743</v>
+        <v>1.489342915128075</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.337192223659614</v>
+        <v>1.419462898731445</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.548460276998129</v>
+        <v>1.381693032642353</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.453617068506456</v>
+        <v>1.371513706262437</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.397870404711314</v>
+        <v>1.478707190844732</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.75510676934341</v>
+        <v>1.367254232373725</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.669589778308973</v>
+        <v>1.329551585833532</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.38412954341306</v>
+        <v>1.463580774570834</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.317641137970452</v>
+        <v>1.421408967820888</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.533261831173408</v>
+        <v>1.279977329945443</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.609835209467792</v>
+        <v>1.326420231387022</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.249489953561926</v>
+        <v>1.749234696599873</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.523619749984498</v>
+        <v>1.690987427253017</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.697442777419527</v>
+        <v>1.499833341634107</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.658446138057848</v>
+        <v>1.483905462651527</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.40699878859947</v>
+        <v>1.782828127412337</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.730528308698837</v>
+        <v>1.582740249860179</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.698061733182877</v>
+        <v>1.486270063879104</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.597424444802159</v>
+        <v>1.338412627793179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.523039467119059</v>
+        <v>1.446576823482733</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.463988410240972</v>
+        <v>1.613480762849586</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.239318377209578</v>
+        <v>1.176127112813867</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.474954268771055</v>
+        <v>1.509513812794334</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.334723946192933</v>
+        <v>1.321065080726778</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.402898495845433</v>
+        <v>1.600607153273847</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.329311496474489</v>
+        <v>1.59817606553405</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.455750058236915</v>
+        <v>1.458440164018545</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.362429810836855</v>
+        <v>1.617682647407694</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.64525646596684</v>
+        <v>1.358693131695436</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.577346150553983</v>
+        <v>1.467765364466422</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.655580419334939</v>
+        <v>1.484722380406721</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.403122823360034</v>
+        <v>1.674472797719371</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.305184746329747</v>
+        <v>1.325278231530913</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.607256957327501</v>
+        <v>1.603077579632323</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.010912997265837</v>
+        <v>1.441646930456405</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.586350956073113</v>
+        <v>1.373485855518694</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.532255167559005</v>
+        <v>1.632411113485429</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.774365700583465</v>
+        <v>1.355828969001877</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.337889708345893</v>
+        <v>1.562451376359971</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.345970763091111</v>
+        <v>1.59299840997684</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.527904542427904</v>
+        <v>1.964959663794018</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.370638468582447</v>
+        <v>1.511486463427646</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.421480198365355</v>
+        <v>1.50421269154934</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.466659981692146</v>
+        <v>1.597862033056751</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.453512147300827</v>
+        <v>1.598158711023887</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.33408955396906</v>
+        <v>1.573230806482281</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.441901740153689</v>
+        <v>1.753262106813237</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.911716705860729</v>
+        <v>1.334709689269063</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.575967712059727</v>
+        <v>1.552338445280305</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.405820356071931</v>
+        <v>1.474071861141215</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.190241521711537</v>
+        <v>1.430406995516623</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.583369819676526</v>
+        <v>1.249128362831453</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.549880596294044</v>
+        <v>1.580484662732879</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.685912460506574</v>
+        <v>1.200416021394047</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.676884323530395</v>
+        <v>1.542313326420437</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.591446698621419</v>
+        <v>1.350434393479869</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.337905541280538</v>
+        <v>1.462596217334712</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.666964565580815</v>
+        <v>1.510446023679284</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.302219374229238</v>
+        <v>1.276312261803075</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.371256640882976</v>
+        <v>1.489921442069152</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.281364451410478</v>
+        <v>1.417540941624607</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.544865086058241</v>
+        <v>1.494401180831606</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.458429766248978</v>
+        <v>1.630261758502602</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.505202688196132</v>
+        <v>1.377371352609736</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.698176978427461</v>
+        <v>1.460079463333934</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1.506331071092991</v>
+        <v>1.524079258831983</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.321562969599448</v>
+        <v>1.674636093255444</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.365957201413477</v>
+        <v>1.871114310368406</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.596389199546614</v>
+        <v>1.210504883489741</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.563302915688326</v>
+        <v>1.711769726656376</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.285609731561609</v>
+        <v>1.362656401858882</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.701369959480045</v>
+        <v>1.610560218347649</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.388831002728306</v>
+        <v>1.950388631352228</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.412805793975696</v>
+        <v>1.370282292877363</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.576595172157256</v>
+        <v>1.470356121576943</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.494042015660212</v>
+        <v>1.608509840247962</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.551525883203989</v>
+        <v>1.653403231571372</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.500772708599263</v>
+        <v>1.22526451153695</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.499895880647286</v>
+        <v>1.356055978379779</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.422151183801812</v>
+        <v>1.41594404117207</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.360833700294534</v>
+        <v>1.258336458179846</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.412901391817309</v>
+        <v>1.305459800305932</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.332252326759568</v>
+        <v>1.539431278567202</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.57112141690976</v>
+        <v>1.465055781207449</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.192474549250805</v>
+        <v>1.457199238349105</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.763793527007904</v>
+        <v>1.439711796149159</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.447507508397656</v>
+        <v>1.470526060361465</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.542987907796269</v>
+        <v>1.738488930791007</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.252718298542028</v>
+        <v>1.622282220545645</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.335849956751987</v>
+        <v>1.549497745243575</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.504238891282403</v>
+        <v>1.509783578776021</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.235429600197391</v>
+        <v>1.651370119749133</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.686334970503283</v>
+        <v>1.35665023066921</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.519147937905897</v>
+        <v>1.654683623244416</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.687651040291014</v>
+        <v>1.565932366793419</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.437579256700489</v>
+        <v>1.577502974882317</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.463777598277572</v>
+        <v>1.246379370661581</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.384023817109475</v>
+        <v>1.400008138703739</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.646763913146474</v>
+        <v>1.572682461651165</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.606438640509756</v>
+        <v>1.418820179033308</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.320017738546419</v>
+        <v>1.849564997676833</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.649605137828843</v>
+        <v>1.367166216956694</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.456513501000069</v>
+        <v>1.407902168382075</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.476074680342535</v>
+        <v>1.397326570761604</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.575996685591443</v>
+        <v>1.37278845583586</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.556225641826682</v>
+        <v>1.476331716271241</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.493184528628871</v>
+        <v>1.310063876629151</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.41014723350297</v>
+        <v>1.65315577202688</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.386347074063141</v>
+        <v>1.402647912656113</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.374013857796882</v>
+        <v>1.510056938035623</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.527147413070903</v>
+        <v>1.349538817771301</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.54524300076267</v>
+        <v>1.66842720749685</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.490149872558881</v>
+        <v>1.606113155900793</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.372222443229351</v>
+        <v>1.357603735563118</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.470936842983649</v>
+        <v>1.623604226025021</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.269265170660732</v>
+        <v>1.303950624705704</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.48058414808814</v>
+        <v>1.616762854854831</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.574672876728601</v>
+        <v>1.483204749905363</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.288792180959653</v>
+        <v>1.540281425238925</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.641623096926864</v>
+        <v>1.624732065692131</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.39759036031439</v>
+        <v>1.354173956656775</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.626080727823025</v>
+        <v>1.262658490310131</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.29028102266695</v>
+        <v>1.637586375048818</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.597131674368356</v>
+        <v>1.503846620390579</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>1.519763584212694</v>
+        <v>1.387276667340718</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.496990958594301</v>
+        <v>1.422546855831526</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.539770738542936</v>
+        <v>1.543725884852953</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.526779097799183</v>
+        <v>1.599193037358705</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.060831331373588</v>
+        <v>1.674689258688708</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.389399184019621</v>
+        <v>1.470889047049779</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.549051301161421</v>
+        <v>1.515254754878247</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.526614620159525</v>
+        <v>1.440972106662559</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.459277028694949</v>
+        <v>1.482748199833389</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.635595871615891</v>
+        <v>1.371212770823953</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.672524338235923</v>
+        <v>1.870537009046531</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.660550419220215</v>
+        <v>1.444511686660668</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.277626409374213</v>
+        <v>1.578695019104124</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.856728799299719</v>
+        <v>1.423704947213867</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.288450913026306</v>
+        <v>1.485546793497009</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.651596372255107</v>
+        <v>1.39037222768025</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.341521999986909</v>
+        <v>1.161369832797894</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.653853656582953</v>
+        <v>1.553428648362373</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.569419176833623</v>
+        <v>1.284125200937992</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.361206793884673</v>
+        <v>1.587460654754373</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.165705353243033</v>
+        <v>1.589552770359351</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.261141633581087</v>
+        <v>1.389200134911263</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.448263732022443</v>
+        <v>1.595939304271677</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.510549387064871</v>
+        <v>1.586726700365435</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.408839908987394</v>
+        <v>1.404269949184074</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.335453736543658</v>
+        <v>1.397345344218321</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.389260616308114</v>
+        <v>1.452791119953091</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.445019216721664</v>
+        <v>1.54440303612988</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.448763209761081</v>
+        <v>1.277362664819624</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.57766468699731</v>
+        <v>1.394595144370697</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.402404650512693</v>
+        <v>1.412294795577871</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.558718910557757</v>
+        <v>1.669577802384823</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.755529489179018</v>
+        <v>1.423905182253058</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.737160308369197</v>
+        <v>1.431547491894371</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.316511078016242</v>
+        <v>1.450241630261953</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.565520957786968</v>
+        <v>1.412696912535288</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.68537081176258</v>
+        <v>1.611811222956004</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.392761286298702</v>
+        <v>1.071093061319606</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.515578691847608</v>
+        <v>1.484857926679594</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.58404123619959</v>
+        <v>1.587810055830559</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.609100195427466</v>
+        <v>1.68572631305086</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.567505923572274</v>
+        <v>1.327332278916621</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.455192242305973</v>
+        <v>1.24120381768752</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.498202209866197</v>
+        <v>1.251026175616687</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.509559489447945</v>
+        <v>1.584742997380389</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.628901918595379</v>
+        <v>1.63090976724566</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.332906632055077</v>
+        <v>1.479803980021038</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.373066205195019</v>
+        <v>1.235268541258287</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.505147977082786</v>
+        <v>1.570938319884742</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>1.699032735201915</v>
+        <v>1.374203597824196</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.465365354569856</v>
+        <v>1.634015407523558</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.666644289795263</v>
+        <v>1.530369539200549</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.747028496779143</v>
+        <v>1.614958266393959</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.30858525452037</v>
+        <v>1.412217204676973</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.542918014719417</v>
+        <v>1.514532490169549</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.664086970113776</v>
+        <v>1.478395487524393</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.563713169530391</v>
+        <v>1.567321674247532</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.475804794211617</v>
+        <v>1.511628400964003</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.326456101440571</v>
+        <v>1.839438033016393</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.426645189880344</v>
+        <v>1.414424409243063</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.403130198665003</v>
+        <v>1.455548990308204</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.355741728608094</v>
+        <v>1.534026964319075</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.527936221277186</v>
+        <v>1.394523256316552</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.367586567068286</v>
+        <v>1.491778493090491</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.4196820334304</v>
+        <v>1.358660613264616</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.54300389341804</v>
+        <v>1.259156353494353</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.587851825690973</v>
+        <v>1.661567551302467</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.314349991133465</v>
+        <v>1.703291079458587</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.487913452652918</v>
+        <v>1.785206983558995</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.451320134300387</v>
+        <v>1.614764022697078</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.766317155936938</v>
+        <v>1.275319417384399</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.315610820545415</v>
+        <v>1.448279814264503</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.602794769253544</v>
+        <v>1.492105103913722</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.591873225392584</v>
+        <v>1.415435196770688</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.486773055921869</v>
+        <v>1.272883192156048</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.474976910408393</v>
+        <v>1.350748327304888</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.419616897690155</v>
+        <v>1.534456787559856</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.347336847358945</v>
+        <v>1.40857833383193</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.57150406871559</v>
+        <v>1.601551288073704</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.171645571017008</v>
+        <v>1.611962103750603</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.370966953448791</v>
+        <v>1.600688264348709</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.507439964824364</v>
+        <v>1.569571298655317</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.519645973488469</v>
+        <v>1.47765998346932</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.451941639860079</v>
+        <v>1.349571090587201</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.278858794744865</v>
+        <v>1.367750624062402</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.501492888256174</v>
+        <v>1.439317644422384</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.533640039469252</v>
+        <v>1.318108538026333</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.299567679905928</v>
+        <v>1.419259364641239</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.50666047062597</v>
+        <v>1.580505903093869</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.76219474662487</v>
+        <v>1.622777656934843</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.67186286280413</v>
+        <v>1.564118887798058</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.561017802449876</v>
+        <v>1.457031591069166</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.606910857277146</v>
+        <v>1.757865040240763</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/23_localizer.xlsx
+++ b/sequences/23_localizer.xlsx
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.315168255916855</v>
+        <v>1.493047569515589</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.449406641080082</v>
+        <v>1.412557719473356</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.419244457393225</v>
+        <v>1.392816138337975</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.380146436173225</v>
+        <v>1.614454745547227</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.573142850448816</v>
+        <v>1.328931546485268</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.60896240676547</v>
+        <v>1.516073482708673</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.557926613458244</v>
+        <v>1.47964207544013</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.444947626902247</v>
+        <v>1.326728357266558</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.800483322056661</v>
+        <v>1.380695070528762</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.342243495959237</v>
+        <v>1.324726793223892</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.636752736797312</v>
+        <v>1.794614850952016</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.39564641427271</v>
+        <v>1.610553167586769</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.361673976352876</v>
+        <v>1.579587312200298</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.346385509987721</v>
+        <v>1.519211912132492</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.418319358232129</v>
+        <v>1.611731923294346</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.534573559931547</v>
+        <v>1.552390474006065</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.454344699053752</v>
+        <v>1.617115755591731</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.407768946728607</v>
+        <v>1.209737201050765</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.578936648704025</v>
+        <v>1.631641702269012</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.671041947439081</v>
+        <v>1.551394211997834</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.337959458147035</v>
+        <v>1.341881789850648</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.354274121056571</v>
+        <v>1.610203220163692</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.390740581639433</v>
+        <v>1.601678835404029</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.583083969344233</v>
+        <v>1.498890929886624</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.514956222287836</v>
+        <v>1.589030906555093</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.631902050503122</v>
+        <v>1.496619496100819</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.501342888777367</v>
+        <v>1.492937450132269</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.698978201520572</v>
+        <v>1.424268336582988</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.525418189044541</v>
+        <v>1.624079741180639</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.958809046591122</v>
+        <v>1.756577688590161</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1.557291857080025</v>
+        <v>1.435461848256441</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.484086560220491</v>
+        <v>1.675023045380311</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.580158470759341</v>
+        <v>1.88889647958206</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.442495102870368</v>
+        <v>1.517930050216991</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.507683657075702</v>
+        <v>1.494938256405796</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.212177817316381</v>
+        <v>1.459488252540332</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.672661369586162</v>
+        <v>1.257380621798759</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.020706261060449</v>
+        <v>1.423042258882074</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.726541433198344</v>
+        <v>1.539388441780019</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.489342915128075</v>
+        <v>1.570907313618758</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.419462898731445</v>
+        <v>1.428401437902265</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.381693032642353</v>
+        <v>1.583563257357405</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.371513706262437</v>
+        <v>1.619278266217902</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.478707190844732</v>
+        <v>1.460868131810334</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.367254232373725</v>
+        <v>1.411930237367992</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.329551585833532</v>
+        <v>1.506143265263172</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.463580774570834</v>
+        <v>1.277291051642201</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.421408967820888</v>
+        <v>1.278327281058301</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.279977329945443</v>
+        <v>1.432215467205145</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.326420231387022</v>
+        <v>1.09279208117288</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.749234696599873</v>
+        <v>1.248265096689177</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.690987427253017</v>
+        <v>1.540164011200359</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.499833341634107</v>
+        <v>1.592771015159812</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.483905462651527</v>
+        <v>1.383427277454099</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.782828127412337</v>
+        <v>1.036750633556948</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.582740249860179</v>
+        <v>1.406111037873114</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.486270063879104</v>
+        <v>1.27221797164205</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.338412627793179</v>
+        <v>1.603704549291839</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.446576823482733</v>
+        <v>1.600593357602895</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.613480762849586</v>
+        <v>1.450172755904405</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.176127112813867</v>
+        <v>1.663240614830074</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.509513812794334</v>
+        <v>1.414284813961571</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.321065080726778</v>
+        <v>1.254510528942915</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.600607153273847</v>
+        <v>1.689476136993626</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.59817606553405</v>
+        <v>1.561503661219438</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.458440164018545</v>
+        <v>1.623000069604614</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.617682647407694</v>
+        <v>1.498427883591132</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.358693131695436</v>
+        <v>1.54206655591086</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.467765364466422</v>
+        <v>1.40940346260974</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.484722380406721</v>
+        <v>1.474888927073133</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.674472797719371</v>
+        <v>1.235233332253198</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.325278231530913</v>
+        <v>1.724116698361112</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.603077579632323</v>
+        <v>1.431945797230695</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.441646930456405</v>
+        <v>1.854721269689216</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.373485855518694</v>
+        <v>1.715470177984413</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.632411113485429</v>
+        <v>1.309612036723495</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.355828969001877</v>
+        <v>1.158320474531608</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.562451376359971</v>
+        <v>1.266236586828196</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.59299840997684</v>
+        <v>1.704992528425657</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.964959663794018</v>
+        <v>1.593980885645779</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.511486463427646</v>
+        <v>1.556283968565188</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.50421269154934</v>
+        <v>1.441603320251396</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.597862033056751</v>
+        <v>1.58541566651747</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.598158711023887</v>
+        <v>1.33257040578488</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.573230806482281</v>
+        <v>1.483784885204881</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.753262106813237</v>
+        <v>1.529327568371089</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.334709689269063</v>
+        <v>1.402084166474416</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.552338445280305</v>
+        <v>1.367234358790299</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.474071861141215</v>
+        <v>1.369716132794171</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.430406995516623</v>
+        <v>1.330458979839794</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.249128362831453</v>
+        <v>1.592708761960946</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.580484662732879</v>
+        <v>1.344511764846472</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.200416021394047</v>
+        <v>1.396526242766743</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.542313326420437</v>
+        <v>1.352621371906823</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.350434393479869</v>
+        <v>1.551966468069494</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.462596217334712</v>
+        <v>1.550297812968868</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.510446023679284</v>
+        <v>1.300199655536868</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.276312261803075</v>
+        <v>1.536115652138436</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.489921442069152</v>
+        <v>1.433137982586353</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.417540941624607</v>
+        <v>1.351609647392223</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.494401180831606</v>
+        <v>1.402031668778704</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.630261758502602</v>
+        <v>1.464003564944099</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.377371352609736</v>
+        <v>1.547868775996544</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.460079463333934</v>
+        <v>1.416138324244447</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.524079258831983</v>
+        <v>1.588011670031956</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.674636093255444</v>
+        <v>1.280283337069272</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.871114310368406</v>
+        <v>1.414169087146648</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.210504883489741</v>
+        <v>1.37974181571327</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.711769726656376</v>
+        <v>1.653990487332497</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.362656401858882</v>
+        <v>1.696261529016078</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.610560218347649</v>
+        <v>1.534876593828506</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.950388631352228</v>
+        <v>1.393468734471007</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1.370282292877363</v>
+        <v>1.535441075411065</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.470356121576943</v>
+        <v>1.56246496409561</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.608509840247962</v>
+        <v>1.38584127924027</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.653403231571372</v>
+        <v>1.641201676492333</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.22526451153695</v>
+        <v>1.292570440920188</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.356055978379779</v>
+        <v>1.393415662591513</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.41594404117207</v>
+        <v>1.548422634534992</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.258336458179846</v>
+        <v>1.404368044837344</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.305459800305932</v>
+        <v>1.329061145551114</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.539431278567202</v>
+        <v>1.60836393224678</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.465055781207449</v>
+        <v>1.25555443980111</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.457199238349105</v>
+        <v>1.443307469895182</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.439711796149159</v>
+        <v>1.267060704694728</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.470526060361465</v>
+        <v>1.385047013267303</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.738488930791007</v>
+        <v>1.406019437659026</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.622282220545645</v>
+        <v>1.489170237160096</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.549497745243575</v>
+        <v>1.264359612471424</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.509783578776021</v>
+        <v>1.510670026056551</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.651370119749133</v>
+        <v>1.556103530968693</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.35665023066921</v>
+        <v>1.425567753520729</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.654683623244416</v>
+        <v>1.514363932540387</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.565932366793419</v>
+        <v>1.451431793143689</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.577502974882317</v>
+        <v>1.45154101021378</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.246379370661581</v>
+        <v>1.217850935611324</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.400008138703739</v>
+        <v>1.697678089798304</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.572682461651165</v>
+        <v>1.473248386128074</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.418820179033308</v>
+        <v>1.582861551185627</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.849564997676833</v>
+        <v>1.433626878912358</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.367166216956694</v>
+        <v>1.748298927901961</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.407902168382075</v>
+        <v>1.03316383728055</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.397326570761604</v>
+        <v>1.261900795055456</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.37278845583586</v>
+        <v>1.604855475024098</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.476331716271241</v>
+        <v>1.316467277493103</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.310063876629151</v>
+        <v>1.533793035221054</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.65315577202688</v>
+        <v>1.52947002617299</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.402647912656113</v>
+        <v>1.490784044710708</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.510056938035623</v>
+        <v>1.306731413301507</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.349538817771301</v>
+        <v>1.388043213839113</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.66842720749685</v>
+        <v>1.412665901670877</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.606113155900793</v>
+        <v>1.429460396337422</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.357603735563118</v>
+        <v>1.636688710470018</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.623604226025021</v>
+        <v>1.445925056966703</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.303950624705704</v>
+        <v>1.47046077771057</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.616762854854831</v>
+        <v>1.636589489167902</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.483204749905363</v>
+        <v>1.571794906017746</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.540281425238925</v>
+        <v>1.470464584374899</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.624732065692131</v>
+        <v>1.412701919190041</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.354173956656775</v>
+        <v>1.377740780343883</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.262658490310131</v>
+        <v>1.583958016429388</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.637586375048818</v>
+        <v>1.314651294154322</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.503846620390579</v>
+        <v>1.473618430826675</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.387276667340718</v>
+        <v>1.412117329611259</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.422546855831526</v>
+        <v>1.552081799062499</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.543725884852953</v>
+        <v>1.538677830300868</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.599193037358705</v>
+        <v>1.312244619673133</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.674689258688708</v>
+        <v>1.811828351145839</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.470889047049779</v>
+        <v>1.839448131696946</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.515254754878247</v>
+        <v>1.391416449933669</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.440972106662559</v>
+        <v>1.493738903716906</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.482748199833389</v>
+        <v>1.61198524651178</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.371212770823953</v>
+        <v>1.552764647152494</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.870537009046531</v>
+        <v>1.862393796924415</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.444511686660668</v>
+        <v>1.46606520934783</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.578695019104124</v>
+        <v>1.191293656893802</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1.423704947213867</v>
+        <v>1.379718426860829</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.485546793497009</v>
+        <v>1.47802740812307</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.39037222768025</v>
+        <v>1.56125278980117</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.161369832797894</v>
+        <v>1.254748302137591</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.553428648362373</v>
+        <v>1.659540752337199</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.284125200937992</v>
+        <v>1.40345130767302</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.587460654754373</v>
+        <v>1.45104698813608</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.589552770359351</v>
+        <v>1.76232494316608</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.389200134911263</v>
+        <v>1.430510341133272</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.595939304271677</v>
+        <v>1.657135195399851</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.586726700365435</v>
+        <v>1.714368413397851</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.404269949184074</v>
+        <v>1.395848780237446</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.397345344218321</v>
+        <v>1.388482629444054</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.452791119953091</v>
+        <v>1.468194148245534</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.54440303612988</v>
+        <v>1.41400446284299</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.277362664819624</v>
+        <v>1.825634832105926</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.394595144370697</v>
+        <v>1.537676719357998</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.412294795577871</v>
+        <v>1.358249404167968</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.669577802384823</v>
+        <v>1.510497513924606</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.423905182253058</v>
+        <v>1.500279021053989</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.431547491894371</v>
+        <v>1.606355624880017</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.450241630261953</v>
+        <v>1.369930430868111</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.412696912535288</v>
+        <v>1.503760184341618</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.611811222956004</v>
+        <v>1.665675109315578</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.071093061319606</v>
+        <v>1.572563611206597</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.484857926679594</v>
+        <v>1.177533008385674</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.587810055830559</v>
+        <v>1.36096752839561</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.68572631305086</v>
+        <v>1.52775825479026</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.327332278916621</v>
+        <v>1.679196665759828</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.24120381768752</v>
+        <v>1.477691224096279</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.251026175616687</v>
+        <v>1.682317527811008</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.584742997380389</v>
+        <v>1.504970408798187</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.63090976724566</v>
+        <v>1.483890920676506</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.479803980021038</v>
+        <v>1.250299018992176</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.235268541258287</v>
+        <v>1.506293407409186</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.570938319884742</v>
+        <v>1.606981432308107</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.374203597824196</v>
+        <v>1.63266988556914</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.634015407523558</v>
+        <v>1.52714227009232</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.530369539200549</v>
+        <v>1.466906693263388</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.614958266393959</v>
+        <v>1.484780486235234</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.412217204676973</v>
+        <v>1.261708876390783</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.514532490169549</v>
+        <v>1.524939879618346</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.478395487524393</v>
+        <v>1.347293316137011</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.567321674247532</v>
+        <v>1.576898187021532</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.511628400964003</v>
+        <v>1.456699465985501</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.839438033016393</v>
+        <v>1.30785928435895</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.414424409243063</v>
+        <v>1.648209823515143</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.455548990308204</v>
+        <v>1.420263030243053</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.534026964319075</v>
+        <v>1.439115383415671</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.394523256316552</v>
+        <v>1.447432066242689</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.491778493090491</v>
+        <v>1.436123334288293</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.358660613264616</v>
+        <v>1.560029818081425</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.259156353494353</v>
+        <v>1.589221161713077</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.661567551302467</v>
+        <v>1.534224685062414</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.703291079458587</v>
+        <v>1.491001521893156</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.785206983558995</v>
+        <v>1.502240296301578</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.614764022697078</v>
+        <v>1.647801631719778</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.275319417384399</v>
+        <v>1.45351978070123</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.448279814264503</v>
+        <v>1.690983068129521</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.492105103913722</v>
+        <v>1.482897468239165</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.415435196770688</v>
+        <v>1.238594572302045</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.272883192156048</v>
+        <v>1.448128326912776</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.350748327304888</v>
+        <v>1.403932073231101</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.534456787559856</v>
+        <v>1.555010401207221</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.40857833383193</v>
+        <v>1.571910527775201</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.601551288073704</v>
+        <v>1.54952493601235</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.611962103750603</v>
+        <v>1.646502972509263</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.600688264348709</v>
+        <v>1.660205397859563</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.569571298655317</v>
+        <v>1.426583726374778</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.47765998346932</v>
+        <v>1.63590766904221</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.349571090587201</v>
+        <v>1.298223016862013</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.367750624062402</v>
+        <v>1.859516421364287</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.439317644422384</v>
+        <v>1.278939817862282</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.318108538026333</v>
+        <v>1.552178763843877</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.419259364641239</v>
+        <v>1.68460800723617</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.580505903093869</v>
+        <v>1.464873422059573</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.622777656934843</v>
+        <v>1.497982757468888</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.564118887798058</v>
+        <v>1.555375806437697</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.457031591069166</v>
+        <v>1.576691685326828</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.757865040240763</v>
+        <v>1.466809386636037</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/23_localizer.xlsx
+++ b/sequences/23_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
   </si>
   <si>
     <t>dog/dog057.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
   </si>
   <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>face/face065.jpg</t>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
     <t>dog/dog094.jpg</t>
   </si>
   <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
     <t>face/face088.jpg</t>
   </si>
   <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
   </si>
   <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.493047569515589</v>
+        <v>1.489771089854184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.412557719473356</v>
+        <v>1.743436136949504</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.392816138337975</v>
+        <v>1.410483159865563</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.614454745547227</v>
+        <v>1.380704189258375</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.328931546485268</v>
+        <v>1.707423604040913</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.516073482708673</v>
+        <v>1.455623295439517</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.47964207544013</v>
+        <v>1.330751249438882</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.326728357266558</v>
+        <v>1.591950300325286</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.380695070528762</v>
+        <v>1.397609577444916</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.324726793223892</v>
+        <v>1.510036698778941</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.794614850952016</v>
+        <v>1.568678170138751</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.610553167586769</v>
+        <v>1.465135164209802</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.579587312200298</v>
+        <v>1.589994274994531</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.519211912132492</v>
+        <v>1.565018347411346</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.611731923294346</v>
+        <v>1.472784791837672</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.552390474006065</v>
+        <v>1.538256991895846</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.617115755591731</v>
+        <v>1.719160984416161</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.209737201050765</v>
+        <v>1.435692559331662</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.631641702269012</v>
+        <v>1.436997032401578</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.551394211997834</v>
+        <v>1.613746615191589</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.341881789850648</v>
+        <v>1.482764853641505</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.610203220163692</v>
+        <v>1.620175403267502</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.601678835404029</v>
+        <v>1.436956994353358</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.498890929886624</v>
+        <v>1.656547851510392</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.589030906555093</v>
+        <v>1.548592413185899</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.496619496100819</v>
+        <v>1.556024254442672</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.492937450132269</v>
+        <v>1.727803705246705</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.424268336582988</v>
+        <v>1.377318102527535</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.624079741180639</v>
+        <v>1.495776435727943</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.756577688590161</v>
+        <v>1.342802585764622</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.435461848256441</v>
+        <v>1.666367042044958</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.675023045380311</v>
+        <v>1.395576031549325</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.88889647958206</v>
+        <v>1.343934976570428</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.517930050216991</v>
+        <v>1.413889988898065</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.494938256405796</v>
+        <v>1.551230998065685</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.459488252540332</v>
+        <v>1.847026288144775</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.257380621798759</v>
+        <v>1.518175500258194</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.423042258882074</v>
+        <v>1.3871723390737</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.539388441780019</v>
+        <v>1.261317406296867</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.570907313618758</v>
+        <v>1.511457893289936</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.428401437902265</v>
+        <v>1.60019752188853</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.583563257357405</v>
+        <v>1.476840022929086</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.619278266217902</v>
+        <v>1.688160422863973</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.460868131810334</v>
+        <v>1.520786659416035</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.411930237367992</v>
+        <v>1.708890372892135</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.506143265263172</v>
+        <v>1.80377259992139</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.277291051642201</v>
+        <v>1.274043737516304</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.278327281058301</v>
+        <v>1.473762469443528</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.432215467205145</v>
+        <v>1.62392171366208</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.09279208117288</v>
+        <v>1.376357791580079</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.248265096689177</v>
+        <v>1.221956217461717</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.540164011200359</v>
+        <v>1.523868167340992</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.592771015159812</v>
+        <v>1.41370150131779</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.383427277454099</v>
+        <v>1.418695891522928</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.036750633556948</v>
+        <v>1.464937875695117</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.406111037873114</v>
+        <v>1.467945314870827</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.27221797164205</v>
+        <v>1.342512452010578</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.603704549291839</v>
+        <v>1.331248467771189</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.600593357602895</v>
+        <v>1.549095512062401</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.450172755904405</v>
+        <v>1.441626236731421</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.663240614830074</v>
+        <v>1.622344346594701</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.414284813961571</v>
+        <v>1.420097760819967</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.254510528942915</v>
+        <v>1.282362989214682</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.689476136993626</v>
+        <v>1.64574069874867</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.561503661219438</v>
+        <v>1.652927572491822</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.623000069604614</v>
+        <v>1.535235334230077</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.498427883591132</v>
+        <v>1.372766026645026</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.54206655591086</v>
+        <v>1.54762120548262</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.40940346260974</v>
+        <v>1.537155236681415</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.474888927073133</v>
+        <v>1.551973644202803</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.235233332253198</v>
+        <v>1.583996082803844</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.724116698361112</v>
+        <v>1.429499624617125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.431945797230695</v>
+        <v>1.45777727836287</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.854721269689216</v>
+        <v>1.674340902822697</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.715470177984413</v>
+        <v>1.883653968379591</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.309612036723495</v>
+        <v>1.369032407442767</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.158320474531608</v>
+        <v>1.382902282014072</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.266236586828196</v>
+        <v>1.478837563513601</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.704992528425657</v>
+        <v>1.550729346309704</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.593980885645779</v>
+        <v>1.351260821342693</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.556283968565188</v>
+        <v>1.455806955075513</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.441603320251396</v>
+        <v>1.514438470766873</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.58541566651747</v>
+        <v>1.344204275659854</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.33257040578488</v>
+        <v>1.547992521868758</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.483784885204881</v>
+        <v>1.443518555926565</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.529327568371089</v>
+        <v>1.505736640849966</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.402084166474416</v>
+        <v>1.262521591532933</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.367234358790299</v>
+        <v>1.466767600222849</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.369716132794171</v>
+        <v>1.398068132113406</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.330458979839794</v>
+        <v>1.489932721980288</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.592708761960946</v>
+        <v>1.563672541988195</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.344511764846472</v>
+        <v>1.751244918425482</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.396526242766743</v>
+        <v>1.421295537964319</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1.352621371906823</v>
+        <v>1.331427644084349</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.551966468069494</v>
+        <v>1.569795818271839</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.550297812968868</v>
+        <v>1.132134235995947</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.300199655536868</v>
+        <v>1.394029861066681</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.536115652138436</v>
+        <v>1.173723635686062</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.433137982586353</v>
+        <v>1.493099132005513</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.351609647392223</v>
+        <v>1.174524480113698</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.402031668778704</v>
+        <v>1.452664961947038</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.464003564944099</v>
+        <v>1.598456802212028</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.547868775996544</v>
+        <v>1.584629229682847</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.416138324244447</v>
+        <v>1.664825783339987</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.588011670031956</v>
+        <v>1.593805519903132</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.280283337069272</v>
+        <v>1.560682569470123</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.414169087146648</v>
+        <v>1.72450379716919</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.37974181571327</v>
+        <v>1.587973626350677</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.653990487332497</v>
+        <v>1.307293578268494</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.696261529016078</v>
+        <v>1.831094814223828</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.534876593828506</v>
+        <v>1.506207465274543</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.393468734471007</v>
+        <v>1.707291452665039</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.535441075411065</v>
+        <v>1.415333418441662</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.56246496409561</v>
+        <v>1.431772540233954</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.38584127924027</v>
+        <v>1.674671357705159</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.641201676492333</v>
+        <v>1.30028931500399</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.292570440920188</v>
+        <v>1.285713781990932</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.393415662591513</v>
+        <v>1.518622998765025</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.548422634534992</v>
+        <v>1.653812323414406</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.404368044837344</v>
+        <v>1.277353873037969</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.329061145551114</v>
+        <v>1.331290403379362</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.60836393224678</v>
+        <v>1.539735052206305</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.25555443980111</v>
+        <v>1.643180873259972</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.443307469895182</v>
+        <v>1.397328469362254</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.267060704694728</v>
+        <v>1.760308349130151</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.385047013267303</v>
+        <v>1.513979767759566</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.406019437659026</v>
+        <v>1.406611132267205</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.489170237160096</v>
+        <v>1.24425515273078</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.264359612471424</v>
+        <v>1.460363293285782</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.510670026056551</v>
+        <v>1.429222068845774</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.556103530968693</v>
+        <v>1.640781251725225</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.425567753520729</v>
+        <v>1.370278262960718</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.514363932540387</v>
+        <v>1.229966046695727</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.451431793143689</v>
+        <v>1.765236942618367</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.45154101021378</v>
+        <v>1.405805791836948</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.217850935611324</v>
+        <v>1.366570572405143</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.697678089798304</v>
+        <v>1.371648224925843</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.473248386128074</v>
+        <v>1.938950819298811</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.582861551185627</v>
+        <v>1.444995464824706</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.433626878912358</v>
+        <v>1.500575754893918</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.748298927901961</v>
+        <v>1.273180933479451</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.03316383728055</v>
+        <v>1.460932371489013</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.261900795055456</v>
+        <v>1.514157344957597</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.604855475024098</v>
+        <v>1.576799750351108</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1.316467277493103</v>
+        <v>1.557038463798063</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.533793035221054</v>
+        <v>1.564642929638451</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.52947002617299</v>
+        <v>1.699075345906228</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.490784044710708</v>
+        <v>1.687769930149328</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.306731413301507</v>
+        <v>1.613025593463129</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.388043213839113</v>
+        <v>1.400429939850349</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.412665901670877</v>
+        <v>1.320236919476861</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.429460396337422</v>
+        <v>1.576449119180844</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.636688710470018</v>
+        <v>1.398124411774407</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.445925056966703</v>
+        <v>1.799092745316154</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.47046077771057</v>
+        <v>1.331519146996352</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.636589489167902</v>
+        <v>1.440295494171596</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.571794906017746</v>
+        <v>1.432510449313933</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.470464584374899</v>
+        <v>1.66917727601961</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.412701919190041</v>
+        <v>1.392158184502953</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.377740780343883</v>
+        <v>1.557797726783862</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.583958016429388</v>
+        <v>1.251676465523456</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.314651294154322</v>
+        <v>1.56492537774835</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.473618430826675</v>
+        <v>1.667349059254085</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.412117329611259</v>
+        <v>1.537256946257224</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.552081799062499</v>
+        <v>1.757053343257453</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.538677830300868</v>
+        <v>1.131036042423784</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.312244619673133</v>
+        <v>1.446990958880926</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.811828351145839</v>
+        <v>1.634583628413389</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.839448131696946</v>
+        <v>1.342658961660319</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.391416449933669</v>
+        <v>1.286347074935925</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.493738903716906</v>
+        <v>1.355230099218344</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.61198524651178</v>
+        <v>1.178222342125847</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.552764647152494</v>
+        <v>1.436452641682271</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.862393796924415</v>
+        <v>1.613964712026276</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.46606520934783</v>
+        <v>1.437072717286766</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.191293656893802</v>
+        <v>1.518620482399645</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.379718426860829</v>
+        <v>1.621236217874244</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.47802740812307</v>
+        <v>1.160832252866555</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.56125278980117</v>
+        <v>1.371256440860797</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.254748302137591</v>
+        <v>1.504203579190493</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.659540752337199</v>
+        <v>1.459945568603108</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.40345130767302</v>
+        <v>1.68893410377224</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.45104698813608</v>
+        <v>1.572541603696044</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.76232494316608</v>
+        <v>1.478425715102997</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.430510341133272</v>
+        <v>1.228027179122674</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.657135195399851</v>
+        <v>1.13150632435532</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.714368413397851</v>
+        <v>1.475842691727943</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.395848780237446</v>
+        <v>1.415767810598077</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.388482629444054</v>
+        <v>1.547781161938755</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.468194148245534</v>
+        <v>1.549192474889961</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.41400446284299</v>
+        <v>1.533767097892667</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.825634832105926</v>
+        <v>1.690264253965676</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.537676719357998</v>
+        <v>1.359494920396087</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>1.358249404167968</v>
+        <v>1.407572500220558</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.510497513924606</v>
+        <v>1.377798216095107</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.500279021053989</v>
+        <v>1.61387016697018</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.606355624880017</v>
+        <v>1.347087260774721</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.369930430868111</v>
+        <v>1.567664965907778</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.503760184341618</v>
+        <v>1.479689372596655</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.665675109315578</v>
+        <v>1.381531178334719</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.572563611206597</v>
+        <v>1.645622382809707</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.177533008385674</v>
+        <v>1.586386906238987</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.36096752839561</v>
+        <v>1.425062922585422</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.52775825479026</v>
+        <v>1.494055753628042</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.679196665759828</v>
+        <v>1.508516702945379</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.477691224096279</v>
+        <v>1.550116648371792</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.682317527811008</v>
+        <v>1.371450882268457</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.504970408798187</v>
+        <v>1.446513542271182</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.483890920676506</v>
+        <v>1.642348642908342</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.250299018992176</v>
+        <v>1.321972115000805</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.506293407409186</v>
+        <v>1.677130849032551</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.606981432308107</v>
+        <v>1.498985440673824</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.63266988556914</v>
+        <v>1.406799071976758</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.52714227009232</v>
+        <v>1.4441295045639</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.466906693263388</v>
+        <v>1.532030358012908</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.484780486235234</v>
+        <v>1.54278581453956</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.261708876390783</v>
+        <v>1.736877194844802</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.524939879618346</v>
+        <v>1.537343745857725</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.347293316137011</v>
+        <v>1.365449065557238</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.576898187021532</v>
+        <v>1.64678935363698</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.456699465985501</v>
+        <v>1.510751113749366</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.30785928435895</v>
+        <v>1.353368145393803</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.648209823515143</v>
+        <v>1.452744113574984</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.420263030243053</v>
+        <v>1.609679634665469</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.439115383415671</v>
+        <v>1.450874954776725</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.447432066242689</v>
+        <v>1.620707963882625</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.436123334288293</v>
+        <v>1.394967152581335</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.560029818081425</v>
+        <v>1.352366106098971</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.589221161713077</v>
+        <v>1.673524120405677</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.534224685062414</v>
+        <v>1.217881487732301</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.491001521893156</v>
+        <v>1.434995005484559</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.502240296301578</v>
+        <v>1.461030016855914</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.647801631719778</v>
+        <v>1.376759394101255</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.45351978070123</v>
+        <v>1.354380411465971</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.690983068129521</v>
+        <v>1.518879381328862</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.482897468239165</v>
+        <v>1.355460387661918</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.238594572302045</v>
+        <v>1.736972768020606</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.448128326912776</v>
+        <v>1.614022617681284</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.403932073231101</v>
+        <v>1.484790640796732</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.555010401207221</v>
+        <v>1.516224741309443</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.571910527775201</v>
+        <v>1.252194489765542</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.54952493601235</v>
+        <v>1.515732617754161</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.646502972509263</v>
+        <v>1.301394647652345</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.660205397859563</v>
+        <v>1.303976109273456</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.426583726374778</v>
+        <v>1.383124270537134</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.63590766904221</v>
+        <v>1.743530011326659</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.298223016862013</v>
+        <v>1.800382680403898</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.859516421364287</v>
+        <v>1.706438884639925</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.278939817862282</v>
+        <v>1.431606979562211</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.552178763843877</v>
+        <v>1.618867121592934</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.68460800723617</v>
+        <v>1.7052387572137</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.464873422059573</v>
+        <v>1.352973872231394</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.497982757468888</v>
+        <v>1.625936217047524</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.555375806437697</v>
+        <v>1.632319640697679</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.576691685326828</v>
+        <v>1.583303153586078</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.466809386636037</v>
+        <v>1.421308085549449</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/23_localizer.xlsx
+++ b/sequences/23_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>face</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>face/face040.jpg</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
   </si>
   <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>face/face034.jpg</t>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
   </si>
   <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
   </si>
   <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
   </si>
   <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
   </si>
   <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>dog/dog078.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
-    <t>flower/flower091.jpg</t>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
   </si>
   <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>house/house089.jpg</t>
   </si>
   <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
+    <t>flower/flower097.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.489771089854184</v>
+        <v>1.341034466928344</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.743436136949504</v>
+        <v>1.729621371195396</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.410483159865563</v>
+        <v>1.520381808272738</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.380704189258375</v>
+        <v>1.395026413352874</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.707423604040913</v>
+        <v>1.793194626996529</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.455623295439517</v>
+        <v>1.447412967658921</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.330751249438882</v>
+        <v>1.61972652195771</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.591950300325286</v>
+        <v>1.56439864992466</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.397609577444916</v>
+        <v>1.522920513194827</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.510036698778941</v>
+        <v>1.485541707165883</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.568678170138751</v>
+        <v>1.616785602836316</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.465135164209802</v>
+        <v>1.463343190548301</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.589994274994531</v>
+        <v>1.526071620209029</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.565018347411346</v>
+        <v>1.845338253761885</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.472784791837672</v>
+        <v>1.478469173035164</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.538256991895846</v>
+        <v>1.511658315378646</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.719160984416161</v>
+        <v>1.313348138090958</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.435692559331662</v>
+        <v>1.173535389068569</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.436997032401578</v>
+        <v>1.501898749083825</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.613746615191589</v>
+        <v>1.419655033939658</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.482764853641505</v>
+        <v>1.261051368584765</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1.620175403267502</v>
+        <v>1.487058164278702</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.436956994353358</v>
+        <v>1.611921485968409</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.656547851510392</v>
+        <v>1.652818785938526</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.548592413185899</v>
+        <v>1.545303790175504</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.556024254442672</v>
+        <v>1.413865235868004</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.727803705246705</v>
+        <v>1.763854466510797</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.377318102527535</v>
+        <v>1.517215848408557</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.495776435727943</v>
+        <v>1.558292077515114</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.342802585764622</v>
+        <v>1.480963154446957</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.666367042044958</v>
+        <v>1.388926991443522</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.395576031549325</v>
+        <v>1.499118384971426</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.343934976570428</v>
+        <v>1.325381249027259</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.413889988898065</v>
+        <v>1.349581368358834</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.551230998065685</v>
+        <v>1.591781940859003</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.847026288144775</v>
+        <v>1.620932543717388</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.518175500258194</v>
+        <v>1.460957655499887</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.3871723390737</v>
+        <v>1.711985496515504</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.261317406296867</v>
+        <v>1.486611071614066</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.511457893289936</v>
+        <v>1.40964405196929</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.60019752188853</v>
+        <v>1.65011214472884</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.476840022929086</v>
+        <v>1.333418169703431</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.688160422863973</v>
+        <v>1.601903070483969</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.520786659416035</v>
+        <v>1.568095011201232</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.708890372892135</v>
+        <v>1.57439791218984</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.80377259992139</v>
+        <v>1.224649693504578</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.274043737516304</v>
+        <v>1.39722944319354</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.473762469443528</v>
+        <v>1.654464209612149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.62392171366208</v>
+        <v>1.562343575707936</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.376357791580079</v>
+        <v>1.415895608146887</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.221956217461717</v>
+        <v>1.471386207191475</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.523868167340992</v>
+        <v>1.646662252879595</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.41370150131779</v>
+        <v>1.49643584927606</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.418695891522928</v>
+        <v>1.585329141026336</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.464937875695117</v>
+        <v>1.537200309930008</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.467945314870827</v>
+        <v>1.4733816235415</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.342512452010578</v>
+        <v>1.430073731298205</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.331248467771189</v>
+        <v>1.582648526627578</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.549095512062401</v>
+        <v>1.555342672959024</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.441626236731421</v>
+        <v>1.374489461904453</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.622344346594701</v>
+        <v>1.59338908491383</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.420097760819967</v>
+        <v>1.408089580781415</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.282362989214682</v>
+        <v>1.609480994811424</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.64574069874867</v>
+        <v>1.464290390960026</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.652927572491822</v>
+        <v>1.756894589921635</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.535235334230077</v>
+        <v>1.34973314824554</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.372766026645026</v>
+        <v>1.34769362775723</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.54762120548262</v>
+        <v>1.476358289854122</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.537155236681415</v>
+        <v>1.558252024625166</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.551973644202803</v>
+        <v>1.640365898149199</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.583996082803844</v>
+        <v>1.497870995114861</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.429499624617125</v>
+        <v>1.410744932240351</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.45777727836287</v>
+        <v>1.437224510508297</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.674340902822697</v>
+        <v>1.605038327113168</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.883653968379591</v>
+        <v>1.343936241690451</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.369032407442767</v>
+        <v>1.856292919525677</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.382902282014072</v>
+        <v>1.297466110698815</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.478837563513601</v>
+        <v>1.496617529639853</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.550729346309704</v>
+        <v>1.546192942519108</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.351260821342693</v>
+        <v>1.489247994485399</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.455806955075513</v>
+        <v>1.618606178329918</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.514438470766873</v>
+        <v>1.36426436178058</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.344204275659854</v>
+        <v>1.363614204433041</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.547992521868758</v>
+        <v>1.219760168719743</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.443518555926565</v>
+        <v>1.483488689971873</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.505736640849966</v>
+        <v>1.614139684839675</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.262521591532933</v>
+        <v>1.38629628266915</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.466767600222849</v>
+        <v>1.673169686762952</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.398068132113406</v>
+        <v>1.692182975619048</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.489932721980288</v>
+        <v>1.416420829191484</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.563672541988195</v>
+        <v>1.341204243668078</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.751244918425482</v>
+        <v>1.229438452517711</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.421295537964319</v>
+        <v>1.526782395352939</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.331427644084349</v>
+        <v>1.181681895175103</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.569795818271839</v>
+        <v>1.683226620248628</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.132134235995947</v>
+        <v>1.272703191915222</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.394029861066681</v>
+        <v>1.644566006647066</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.173723635686062</v>
+        <v>1.152133818874689</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.493099132005513</v>
+        <v>1.31710432136512</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.174524480113698</v>
+        <v>1.230410690252328</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.452664961947038</v>
+        <v>1.373871599076489</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.598456802212028</v>
+        <v>1.628935140718162</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.584629229682847</v>
+        <v>1.408433322148535</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.664825783339987</v>
+        <v>1.44470708968073</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.593805519903132</v>
+        <v>1.525791643831453</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1.560682569470123</v>
+        <v>1.639132769328988</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.72450379716919</v>
+        <v>1.454433850868788</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.587973626350677</v>
+        <v>1.508570791635276</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.307293578268494</v>
+        <v>1.547787438466659</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.831094814223828</v>
+        <v>1.375930657032463</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.506207465274543</v>
+        <v>1.42840193634443</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.707291452665039</v>
+        <v>1.65674504504088</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.415333418441662</v>
+        <v>1.467914974892391</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.431772540233954</v>
+        <v>1.542719885134237</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.674671357705159</v>
+        <v>1.295086842604764</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.30028931500399</v>
+        <v>1.259919261034402</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.285713781990932</v>
+        <v>1.345600511445438</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.518622998765025</v>
+        <v>1.552854163336733</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.653812323414406</v>
+        <v>1.333644218399261</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.277353873037969</v>
+        <v>1.579839425760752</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.331290403379362</v>
+        <v>1.3060982011711</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.539735052206305</v>
+        <v>1.550870153855159</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.643180873259972</v>
+        <v>1.488987582797261</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.397328469362254</v>
+        <v>1.384386071631764</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.760308349130151</v>
+        <v>1.626099987534449</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.513979767759566</v>
+        <v>1.531024386569101</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.406611132267205</v>
+        <v>1.407149330290182</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.24425515273078</v>
+        <v>1.352554485993668</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.460363293285782</v>
+        <v>1.583477742205497</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.429222068845774</v>
+        <v>1.542987013349454</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.640781251725225</v>
+        <v>1.359945293501133</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.370278262960718</v>
+        <v>1.240411671630665</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.229966046695727</v>
+        <v>1.517465183454387</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.765236942618367</v>
+        <v>1.343447699951088</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.405805791836948</v>
+        <v>1.405340467452028</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.366570572405143</v>
+        <v>1.55423613340249</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.371648224925843</v>
+        <v>1.751908453463601</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.938950819298811</v>
+        <v>1.307207881853915</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.444995464824706</v>
+        <v>1.65328540902468</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.500575754893918</v>
+        <v>1.768386754619609</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.273180933479451</v>
+        <v>1.674867525361679</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.460932371489013</v>
+        <v>1.376092419822848</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.514157344957597</v>
+        <v>1.037181416641185</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.576799750351108</v>
+        <v>1.329112930439858</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.557038463798063</v>
+        <v>1.614374314569319</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.564642929638451</v>
+        <v>1.730628869148853</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.699075345906228</v>
+        <v>1.605634291806841</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.687769930149328</v>
+        <v>1.749290602124312</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.613025593463129</v>
+        <v>1.471460537767641</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.400429939850349</v>
+        <v>1.62321565060933</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.320236919476861</v>
+        <v>1.399187402529446</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.576449119180844</v>
+        <v>1.51883465620279</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.398124411774407</v>
+        <v>1.479273615480316</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.799092745316154</v>
+        <v>1.522862699457916</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.331519146996352</v>
+        <v>1.773244690524</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.440295494171596</v>
+        <v>1.243436661377173</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.432510449313933</v>
+        <v>1.515739403224445</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.66917727601961</v>
+        <v>1.537139867145912</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.392158184502953</v>
+        <v>1.583740208342881</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.557797726783862</v>
+        <v>1.522814230523861</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.251676465523456</v>
+        <v>1.538448000358931</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.56492537774835</v>
+        <v>1.358169192835831</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.667349059254085</v>
+        <v>1.535018521500592</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.537256946257224</v>
+        <v>1.431140908639083</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.757053343257453</v>
+        <v>1.637405049005604</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.131036042423784</v>
+        <v>1.542302907634626</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.446990958880926</v>
+        <v>1.537781805557733</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.634583628413389</v>
+        <v>1.423236176324542</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.342658961660319</v>
+        <v>1.523882522643585</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.286347074935925</v>
+        <v>1.575692578724627</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.355230099218344</v>
+        <v>1.606645897052896</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.178222342125847</v>
+        <v>1.492098112776082</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.436452641682271</v>
+        <v>1.699975675624831</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.613964712026276</v>
+        <v>1.622275655521662</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.437072717286766</v>
+        <v>1.287761596228789</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.518620482399645</v>
+        <v>1.566708342003778</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.621236217874244</v>
+        <v>1.61113812282494</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.160832252866555</v>
+        <v>1.627466031497005</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.371256440860797</v>
+        <v>1.566513401307959</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.504203579190493</v>
+        <v>1.481512823378734</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.459945568603108</v>
+        <v>1.578603580405183</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.68893410377224</v>
+        <v>1.608655425616543</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.572541603696044</v>
+        <v>1.754563770703987</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.478425715102997</v>
+        <v>1.338654072589315</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.228027179122674</v>
+        <v>1.570511760871852</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.13150632435532</v>
+        <v>1.559552837441825</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.475842691727943</v>
+        <v>1.503558445361503</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.415767810598077</v>
+        <v>1.350693432564321</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.547781161938755</v>
+        <v>1.807735459926036</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.549192474889961</v>
+        <v>1.496548682470001</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.533767097892667</v>
+        <v>1.451500049005373</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.690264253965676</v>
+        <v>1.358880855754905</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.359494920396087</v>
+        <v>1.463781954396314</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.407572500220558</v>
+        <v>1.341841620140908</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.377798216095107</v>
+        <v>1.414839053476846</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.61387016697018</v>
+        <v>1.607903413833227</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.347087260774721</v>
+        <v>1.479037751515849</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.567664965907778</v>
+        <v>1.369381959340122</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.479689372596655</v>
+        <v>1.589397067827922</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.381531178334719</v>
+        <v>1.518660216632947</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.645622382809707</v>
+        <v>1.374446840276547</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.586386906238987</v>
+        <v>1.381051822458359</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.425062922585422</v>
+        <v>1.621440736380187</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.494055753628042</v>
+        <v>1.509688874300464</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.508516702945379</v>
+        <v>1.317617815004492</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.550116648371792</v>
+        <v>1.144242160300599</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.371450882268457</v>
+        <v>1.448810694357805</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.446513542271182</v>
+        <v>1.467303689450092</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.642348642908342</v>
+        <v>1.372177055251258</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.321972115000805</v>
+        <v>1.456227057918776</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.677130849032551</v>
+        <v>1.507816894548978</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.498985440673824</v>
+        <v>1.60486819326607</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.406799071976758</v>
+        <v>1.232635281766491</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.4441295045639</v>
+        <v>1.556221881684228</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.532030358012908</v>
+        <v>1.68214439379811</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.54278581453956</v>
+        <v>1.578557743825974</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.736877194844802</v>
+        <v>1.480690061061432</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.537343745857725</v>
+        <v>1.463448006801532</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.365449065557238</v>
+        <v>1.66229227052112</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.64678935363698</v>
+        <v>1.247412378710088</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.510751113749366</v>
+        <v>1.841691554792931</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.353368145393803</v>
+        <v>1.461909122736073</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.452744113574984</v>
+        <v>1.560689187441965</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.609679634665469</v>
+        <v>1.233735176618465</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.450874954776725</v>
+        <v>1.437589930136015</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>1.620707963882625</v>
+        <v>1.435716554761842</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.394967152581335</v>
+        <v>1.538939463423144</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.352366106098971</v>
+        <v>1.50060985290146</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.673524120405677</v>
+        <v>1.65823821211566</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.217881487732301</v>
+        <v>1.424191330480545</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.434995005484559</v>
+        <v>1.595113131607419</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.461030016855914</v>
+        <v>1.557651865198615</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.376759394101255</v>
+        <v>1.489516671896951</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.354380411465971</v>
+        <v>1.629459655109367</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.518879381328862</v>
+        <v>1.402292902631567</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.355460387661918</v>
+        <v>1.415553870601019</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.736972768020606</v>
+        <v>1.460792340761932</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.614022617681284</v>
+        <v>1.601481344603867</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.484790640796732</v>
+        <v>1.604817997540025</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.516224741309443</v>
+        <v>1.288690110059096</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.252194489765542</v>
+        <v>1.364443405928441</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.515732617754161</v>
+        <v>1.471774172918517</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.301394647652345</v>
+        <v>1.626671498351373</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.303976109273456</v>
+        <v>1.40939996900903</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.383124270537134</v>
+        <v>1.555432186573904</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.743530011326659</v>
+        <v>1.424111779089148</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.800382680403898</v>
+        <v>1.346935773107753</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.706438884639925</v>
+        <v>1.611397331054865</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.431606979562211</v>
+        <v>1.584276060592298</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.618867121592934</v>
+        <v>1.563155446964272</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.7052387572137</v>
+        <v>1.581712108244506</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.352973872231394</v>
+        <v>1.41037725398867</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.625936217047524</v>
+        <v>1.308477515080326</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.632319640697679</v>
+        <v>1.546993036930002</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.583303153586078</v>
+        <v>1.396682177969699</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.421308085549449</v>
+        <v>1.481803418612707</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/23_localizer.xlsx
+++ b/sequences/23_localizer.xlsx
@@ -34,222 +34,381 @@
     <t>face</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
   </si>
   <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>dog/dog059.jpg</t>
   </si>
   <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
     <t>house/house049.jpg</t>
   </si>
   <si>
@@ -259,556 +418,397 @@
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
   </si>
   <si>
     <t>flower/flower072.jpg</t>
   </si>
   <si>
-    <t>dog/dog068.jpg</t>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
   </si>
   <si>
     <t>flower/flower083.jpg</t>
   </si>
   <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
     <t>face/face088.jpg</t>
   </si>
   <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
     <t>house/house092.jpg</t>
   </si>
   <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
   </si>
   <si>
     <t>face/face086.jpg</t>
   </si>
   <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.341034466928344</v>
+        <v>1.653170620085684</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.729621371195396</v>
+        <v>1.524000783898459</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.520381808272738</v>
+        <v>1.749025761110594</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.395026413352874</v>
+        <v>1.743122364498058</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.793194626996529</v>
+        <v>1.815550439653801</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.447412967658921</v>
+        <v>1.465018628881331</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.61972652195771</v>
+        <v>1.472066998259407</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.56439864992466</v>
+        <v>1.352000229138302</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.522920513194827</v>
+        <v>1.300694778214795</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.485541707165883</v>
+        <v>1.400094572539186</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.616785602836316</v>
+        <v>1.529909468900857</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.463343190548301</v>
+        <v>1.54563907410585</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.526071620209029</v>
+        <v>1.552542631831401</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.845338253761885</v>
+        <v>1.566881696688212</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.478469173035164</v>
+        <v>1.479292467465263</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.511658315378646</v>
+        <v>1.723466375908966</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.313348138090958</v>
+        <v>1.578116515054937</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.173535389068569</v>
+        <v>1.305364585010972</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.501898749083825</v>
+        <v>1.213058320196772</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.419655033939658</v>
+        <v>1.692880233704499</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.261051368584765</v>
+        <v>1.414273394890547</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.487058164278702</v>
+        <v>1.505969533021087</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.611921485968409</v>
+        <v>1.669810741542879</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.652818785938526</v>
+        <v>1.491161555708424</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.545303790175504</v>
+        <v>1.715348466800823</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.413865235868004</v>
+        <v>1.352353395552831</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.763854466510797</v>
+        <v>1.501633541076153</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.517215848408557</v>
+        <v>1.449675667557485</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.558292077515114</v>
+        <v>1.451234145601449</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.480963154446957</v>
+        <v>1.54267238865396</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.388926991443522</v>
+        <v>1.353269970884501</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.499118384971426</v>
+        <v>1.447633292664287</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.325381249027259</v>
+        <v>1.467085953169475</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.349581368358834</v>
+        <v>1.471582473094066</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.591781940859003</v>
+        <v>1.605642193265375</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.620932543717388</v>
+        <v>1.632997883877674</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.460957655499887</v>
+        <v>1.479057533752962</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.711985496515504</v>
+        <v>1.508298239380606</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.486611071614066</v>
+        <v>1.449986063034436</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.40964405196929</v>
+        <v>1.755305559688198</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.65011214472884</v>
+        <v>1.506660030976469</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.333418169703431</v>
+        <v>1.315021712960622</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.601903070483969</v>
+        <v>1.615227426573626</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.568095011201232</v>
+        <v>1.597832039745456</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.57439791218984</v>
+        <v>1.872686939350513</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.224649693504578</v>
+        <v>1.38758291474637</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.39722944319354</v>
+        <v>1.581567741909575</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.654464209612149</v>
+        <v>1.359955537495187</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.562343575707936</v>
+        <v>1.626001145402486</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.415895608146887</v>
+        <v>1.667651802679897</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.471386207191475</v>
+        <v>1.339427544554429</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.646662252879595</v>
+        <v>1.343277789238334</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.49643584927606</v>
+        <v>1.209106907316985</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.585329141026336</v>
+        <v>1.704095949417957</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.537200309930008</v>
+        <v>1.564257618045192</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.4733816235415</v>
+        <v>1.587399428444825</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.430073731298205</v>
+        <v>1.500434548974269</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.582648526627578</v>
+        <v>1.513752133385694</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.555342672959024</v>
+        <v>1.341256896462536</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.374489461904453</v>
+        <v>1.522320310463634</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.59338908491383</v>
+        <v>1.288038761354091</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.408089580781415</v>
+        <v>1.595176246610174</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.609480994811424</v>
+        <v>1.577455367936938</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.464290390960026</v>
+        <v>1.310332404258138</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.756894589921635</v>
+        <v>1.656081108983545</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.34973314824554</v>
+        <v>1.469092402165691</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.34769362775723</v>
+        <v>1.266345597761159</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.476358289854122</v>
+        <v>1.588863065908348</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.558252024625166</v>
+        <v>1.296770848857299</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.640365898149199</v>
+        <v>1.409243579959023</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.497870995114861</v>
+        <v>1.578591411170599</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.410744932240351</v>
+        <v>1.400673639114106</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.437224510508297</v>
+        <v>1.538697457560184</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.605038327113168</v>
+        <v>1.767026321517784</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.343936241690451</v>
+        <v>1.409769221535149</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.856292919525677</v>
+        <v>1.586600959812613</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.297466110698815</v>
+        <v>1.672816938335955</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.496617529639853</v>
+        <v>1.539853731549205</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.546192942519108</v>
+        <v>1.536195467052197</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.489247994485399</v>
+        <v>1.634689276413554</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.618606178329918</v>
+        <v>1.575896976795573</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.36426436178058</v>
+        <v>1.514488839679988</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.363614204433041</v>
+        <v>1.313426740384436</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>1.219760168719743</v>
+        <v>1.478400231520751</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.483488689971873</v>
+        <v>1.654157381123429</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.614139684839675</v>
+        <v>1.480261581254774</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.38629628266915</v>
+        <v>1.671342691433955</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.673169686762952</v>
+        <v>1.288423926098283</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.692182975619048</v>
+        <v>1.703627619481682</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.416420829191484</v>
+        <v>1.422773766044544</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.341204243668078</v>
+        <v>1.402833217722343</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.229438452517711</v>
+        <v>1.638966494535729</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.526782395352939</v>
+        <v>1.643584950126605</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.181681895175103</v>
+        <v>1.302876690499107</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.683226620248628</v>
+        <v>1.287273203338156</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.272703191915222</v>
+        <v>1.541364943553067</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.644566006647066</v>
+        <v>1.40959542531507</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.152133818874689</v>
+        <v>1.474613871182819</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.31710432136512</v>
+        <v>1.674383233207406</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.230410690252328</v>
+        <v>1.494467408412386</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.373871599076489</v>
+        <v>1.545503592573542</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.628935140718162</v>
+        <v>1.514672327965835</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.408433322148535</v>
+        <v>1.464778707890626</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.44470708968073</v>
+        <v>1.659020859465954</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.525791643831453</v>
+        <v>1.283754279755629</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1.639132769328988</v>
+        <v>1.462655762613895</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.454433850868788</v>
+        <v>1.538853508405102</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.508570791635276</v>
+        <v>1.361079789854161</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.547787438466659</v>
+        <v>1.517824771030695</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.375930657032463</v>
+        <v>1.319030760016343</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.42840193634443</v>
+        <v>1.540572072014812</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.65674504504088</v>
+        <v>1.339343388459043</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.467914974892391</v>
+        <v>1.430108719278826</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.542719885134237</v>
+        <v>1.25893909559767</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.295086842604764</v>
+        <v>1.467148906558343</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.259919261034402</v>
+        <v>1.542363479527163</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.345600511445438</v>
+        <v>1.427631615115094</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.552854163336733</v>
+        <v>1.502583939176432</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.333644218399261</v>
+        <v>1.636883224192494</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.579839425760752</v>
+        <v>1.460485654207414</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.3060982011711</v>
+        <v>1.400491500360297</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.550870153855159</v>
+        <v>1.711078545104955</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.488987582797261</v>
+        <v>1.258674926611615</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.384386071631764</v>
+        <v>1.780191315234015</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.626099987534449</v>
+        <v>1.813872489602136</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.531024386569101</v>
+        <v>1.437016939374746</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.407149330290182</v>
+        <v>1.266895966546523</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.352554485993668</v>
+        <v>1.305009398077522</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.583477742205497</v>
+        <v>1.683996267013796</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.542987013349454</v>
+        <v>1.606516304599781</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.359945293501133</v>
+        <v>1.572735113295619</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.240411671630665</v>
+        <v>1.49481570482716</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.517465183454387</v>
+        <v>1.375726142405219</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.343447699951088</v>
+        <v>1.542750239440568</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.405340467452028</v>
+        <v>1.426182714056003</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.55423613340249</v>
+        <v>1.577036299834584</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.751908453463601</v>
+        <v>1.073122066936923</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.307207881853915</v>
+        <v>1.567882103935847</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.65328540902468</v>
+        <v>1.632442670749767</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.768386754619609</v>
+        <v>1.646626263424785</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.674867525361679</v>
+        <v>1.342009874233418</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.376092419822848</v>
+        <v>1.371651668390981</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.037181416641185</v>
+        <v>1.556154186016097</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.329112930439858</v>
+        <v>1.390002690577514</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.614374314569319</v>
+        <v>1.161981481611403</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.730628869148853</v>
+        <v>1.651805147664078</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.605634291806841</v>
+        <v>1.530605839648415</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.749290602124312</v>
+        <v>1.436007308683998</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.471460537767641</v>
+        <v>1.348414343933168</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.62321565060933</v>
+        <v>1.548926446253679</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.399187402529446</v>
+        <v>1.323698637311683</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.51883465620279</v>
+        <v>1.59484738538308</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.479273615480316</v>
+        <v>1.492919946765727</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.522862699457916</v>
+        <v>1.713621781884715</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.773244690524</v>
+        <v>1.606989383622473</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.243436661377173</v>
+        <v>1.57486353346846</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.515739403224445</v>
+        <v>1.461057949221585</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.537139867145912</v>
+        <v>1.583386014662502</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.583740208342881</v>
+        <v>1.643031586724518</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.522814230523861</v>
+        <v>1.746055913776888</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.538448000358931</v>
+        <v>1.337199055356581</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.358169192835831</v>
+        <v>1.188658835202064</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.535018521500592</v>
+        <v>1.477497258282055</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.431140908639083</v>
+        <v>1.458150822428992</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.637405049005604</v>
+        <v>1.383942556956578</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.542302907634626</v>
+        <v>1.533202690277477</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.537781805557733</v>
+        <v>1.661744257141645</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.423236176324542</v>
+        <v>1.486586067096334</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.523882522643585</v>
+        <v>1.84682873105415</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.575692578724627</v>
+        <v>1.361923609393318</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.606645897052896</v>
+        <v>1.495230797914777</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1.492098112776082</v>
+        <v>1.606606286709336</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.699975675624831</v>
+        <v>1.396958299322153</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.622275655521662</v>
+        <v>1.435685017864669</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.287761596228789</v>
+        <v>1.58374288095321</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.566708342003778</v>
+        <v>1.548155144154181</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.61113812282494</v>
+        <v>1.644119493887704</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.627466031497005</v>
+        <v>1.583199547065904</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.566513401307959</v>
+        <v>1.4287931636663</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.481512823378734</v>
+        <v>1.668193884904411</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.578603580405183</v>
+        <v>1.527075220162188</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.608655425616543</v>
+        <v>1.448448560804551</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.754563770703987</v>
+        <v>1.337842869105342</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.338654072589315</v>
+        <v>1.583282861751786</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.570511760871852</v>
+        <v>1.565723741481306</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.559552837441825</v>
+        <v>1.467869884471184</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.503558445361503</v>
+        <v>1.597659767165685</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.350693432564321</v>
+        <v>1.561591456123414</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.807735459926036</v>
+        <v>1.42870519281316</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.496548682470001</v>
+        <v>1.504206137266382</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.451500049005373</v>
+        <v>1.523954157978157</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.358880855754905</v>
+        <v>1.554876729011935</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.463781954396314</v>
+        <v>1.492069141251656</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.341841620140908</v>
+        <v>1.703898948558422</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.414839053476846</v>
+        <v>1.583532809112467</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.607903413833227</v>
+        <v>1.453612310060134</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.479037751515849</v>
+        <v>1.379288050855977</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.369381959340122</v>
+        <v>1.357413170091209</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.589397067827922</v>
+        <v>1.382505389165598</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.518660216632947</v>
+        <v>1.49916695594879</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.374446840276547</v>
+        <v>1.357466898697139</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.381051822458359</v>
+        <v>1.505765463788382</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.621440736380187</v>
+        <v>1.402781847589412</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.509688874300464</v>
+        <v>1.128241346106188</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.317617815004492</v>
+        <v>1.377899653032486</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.144242160300599</v>
+        <v>1.930874885313776</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.448810694357805</v>
+        <v>1.694393749373692</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.467303689450092</v>
+        <v>1.555331991393888</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.372177055251258</v>
+        <v>1.373120916074784</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.456227057918776</v>
+        <v>1.55490150362279</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.507816894548978</v>
+        <v>1.518212850117069</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.60486819326607</v>
+        <v>1.671118512691502</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.232635281766491</v>
+        <v>1.294322233162505</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.556221881684228</v>
+        <v>1.299203926812414</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.68214439379811</v>
+        <v>1.452936883773913</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.578557743825974</v>
+        <v>1.425188973044014</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.480690061061432</v>
+        <v>1.682263699403049</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.463448006801532</v>
+        <v>1.537789980699519</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.66229227052112</v>
+        <v>1.678281914270411</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.247412378710088</v>
+        <v>1.531344685455706</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.841691554792931</v>
+        <v>1.388238185679509</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.461909122736073</v>
+        <v>1.748312556594743</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.560689187441965</v>
+        <v>1.616557424881307</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.233735176618465</v>
+        <v>1.638508986420532</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.437589930136015</v>
+        <v>1.667056123317321</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.435716554761842</v>
+        <v>1.409755015884213</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.538939463423144</v>
+        <v>1.615108994610153</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.50060985290146</v>
+        <v>1.4698089220666</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.65823821211566</v>
+        <v>1.527332292983279</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.424191330480545</v>
+        <v>1.618743366560365</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.595113131607419</v>
+        <v>1.452683968322451</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.557651865198615</v>
+        <v>1.546855361921574</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.489516671896951</v>
+        <v>1.499571730359918</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.629459655109367</v>
+        <v>1.551872542596374</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.402292902631567</v>
+        <v>1.392019002080941</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.415553870601019</v>
+        <v>1.519012391681795</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>1.460792340761932</v>
+        <v>1.691216147073386</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.601481344603867</v>
+        <v>1.384308052823061</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.604817997540025</v>
+        <v>1.529052153153373</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.288690110059096</v>
+        <v>1.361253538942585</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.364443405928441</v>
+        <v>1.543143876771816</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.471774172918517</v>
+        <v>1.200105759248305</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.626671498351373</v>
+        <v>1.494044855898147</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.40939996900903</v>
+        <v>1.619897881987289</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.555432186573904</v>
+        <v>1.723748696399126</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.424111779089148</v>
+        <v>1.278355505433987</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.346935773107753</v>
+        <v>1.884061874595434</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.611397331054865</v>
+        <v>1.520817442969411</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.584276060592298</v>
+        <v>1.613101836185272</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.563155446964272</v>
+        <v>1.589785694927876</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.581712108244506</v>
+        <v>1.350775905452124</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.41037725398867</v>
+        <v>1.673276774196594</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.308477515080326</v>
+        <v>1.867622850847256</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.546993036930002</v>
+        <v>1.521393463181026</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.396682177969699</v>
+        <v>1.303722295065179</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.481803418612707</v>
+        <v>1.533687520391234</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/23_localizer.xlsx
+++ b/sequences/23_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
   </si>
   <si>
     <t>face/face043.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
   </si>
   <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
+    <t>house/house047.jpg</t>
   </si>
   <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
+    <t>dog/dog038.jpg</t>
   </si>
   <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
   </si>
   <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
   </si>
   <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>face/face069.jpg</t>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
   </si>
   <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
     <t>face/face083.jpg</t>
   </si>
   <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.653170620085684</v>
+        <v>1.423544998970423</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.524000783898459</v>
+        <v>1.514154502338242</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.749025761110594</v>
+        <v>1.570445448929056</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.743122364498058</v>
+        <v>1.293653815205633</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.815550439653801</v>
+        <v>1.693716908033686</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.465018628881331</v>
+        <v>1.3988594231447</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.472066998259407</v>
+        <v>1.572763657545152</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.352000229138302</v>
+        <v>1.430316354326892</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.300694778214795</v>
+        <v>1.583321010012332</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.400094572539186</v>
+        <v>1.507257412348611</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.529909468900857</v>
+        <v>1.539873584442315</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.54563907410585</v>
+        <v>1.383263220030977</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.552542631831401</v>
+        <v>1.2584771720982</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.566881696688212</v>
+        <v>1.728541369412125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.479292467465263</v>
+        <v>1.266623424538633</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.723466375908966</v>
+        <v>1.682795296145947</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.578116515054937</v>
+        <v>1.410196235744675</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.305364585010972</v>
+        <v>1.393841211180739</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.213058320196772</v>
+        <v>1.276739697225578</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.692880233704499</v>
+        <v>1.526310614488024</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.414273394890547</v>
+        <v>1.507303670181596</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.505969533021087</v>
+        <v>1.681765410818907</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.669810741542879</v>
+        <v>1.516078373671313</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.491161555708424</v>
+        <v>1.406040338779275</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.715348466800823</v>
+        <v>1.43817739628844</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.352353395552831</v>
+        <v>1.611898824906237</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1.501633541076153</v>
+        <v>1.518146377352484</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.449675667557485</v>
+        <v>1.522740427969148</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.451234145601449</v>
+        <v>1.774583860577057</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.54267238865396</v>
+        <v>1.599841504201487</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.353269970884501</v>
+        <v>1.246030894170546</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.447633292664287</v>
+        <v>1.636498731976576</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1.467085953169475</v>
+        <v>1.472667288248158</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.471582473094066</v>
+        <v>1.565747179907336</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.605642193265375</v>
+        <v>1.535197528231744</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.632997883877674</v>
+        <v>1.544482221506233</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.479057533752962</v>
+        <v>1.661703518535598</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.508298239380606</v>
+        <v>1.57275019460834</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.449986063034436</v>
+        <v>1.504958038454232</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.755305559688198</v>
+        <v>1.630626987468987</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.506660030976469</v>
+        <v>1.636108807301932</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.315021712960622</v>
+        <v>1.684330122493944</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.615227426573626</v>
+        <v>1.554754862043028</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.597832039745456</v>
+        <v>1.709690995269938</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.872686939350513</v>
+        <v>1.534044726064949</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.38758291474637</v>
+        <v>1.390708016514465</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.581567741909575</v>
+        <v>1.775579066000168</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.359955537495187</v>
+        <v>1.438640315217805</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.626001145402486</v>
+        <v>1.455629429988673</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.667651802679897</v>
+        <v>1.583910572627075</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.339427544554429</v>
+        <v>1.75246315583367</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.343277789238334</v>
+        <v>1.367335305429678</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.209106907316985</v>
+        <v>1.625195157988254</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.704095949417957</v>
+        <v>1.234427523756622</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.564257618045192</v>
+        <v>1.521713027800868</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.587399428444825</v>
+        <v>1.287840749866852</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.500434548974269</v>
+        <v>1.46621408096335</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.513752133385694</v>
+        <v>1.74531502671222</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.341256896462536</v>
+        <v>1.651170193375928</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.522320310463634</v>
+        <v>1.420648074240498</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.288038761354091</v>
+        <v>1.518451735209922</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.595176246610174</v>
+        <v>1.636178141241217</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.577455367936938</v>
+        <v>1.467955222720459</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.310332404258138</v>
+        <v>1.337694167192599</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.656081108983545</v>
+        <v>1.422504385854972</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.469092402165691</v>
+        <v>1.747700445969191</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.266345597761159</v>
+        <v>1.373480109674757</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.588863065908348</v>
+        <v>1.721167957277629</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.296770848857299</v>
+        <v>1.460435902231998</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.409243579959023</v>
+        <v>1.56228074834901</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.578591411170599</v>
+        <v>1.122353697136</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.400673639114106</v>
+        <v>1.666805197310512</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.538697457560184</v>
+        <v>1.498228689523381</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.767026321517784</v>
+        <v>1.537154011127271</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.409769221535149</v>
+        <v>1.527475802780561</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.586600959812613</v>
+        <v>1.59790800839428</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.672816938335955</v>
+        <v>1.764467535058658</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.539853731549205</v>
+        <v>1.363913953176446</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.536195467052197</v>
+        <v>1.595244448793694</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.634689276413554</v>
+        <v>1.489238679036186</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.575896976795573</v>
+        <v>1.628801684353965</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.514488839679988</v>
+        <v>1.506265850154223</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.313426740384436</v>
+        <v>1.429814405016139</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.478400231520751</v>
+        <v>1.620510249789545</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.654157381123429</v>
+        <v>1.590993539215926</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.480261581254774</v>
+        <v>1.580721114312211</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.671342691433955</v>
+        <v>1.637869650918038</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.288423926098283</v>
+        <v>1.500038421915196</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.703627619481682</v>
+        <v>1.626942263266749</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.422773766044544</v>
+        <v>1.220414115058527</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.402833217722343</v>
+        <v>1.553799956687731</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.638966494535729</v>
+        <v>1.723211131078004</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.643584950126605</v>
+        <v>1.421208437908198</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.302876690499107</v>
+        <v>1.470784498453653</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.287273203338156</v>
+        <v>1.71716703842162</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.541364943553067</v>
+        <v>1.454816127776425</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.40959542531507</v>
+        <v>1.392264340924595</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.474613871182819</v>
+        <v>1.392613750122505</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.674383233207406</v>
+        <v>1.577164002670939</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.494467408412386</v>
+        <v>1.532743551375554</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.545503592573542</v>
+        <v>1.489000448210358</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.514672327965835</v>
+        <v>1.521583745989861</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.464778707890626</v>
+        <v>1.467776467109234</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.659020859465954</v>
+        <v>1.554082264504588</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.283754279755629</v>
+        <v>1.562064709024686</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.462655762613895</v>
+        <v>1.323064516745422</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.538853508405102</v>
+        <v>1.273876785804012</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.361079789854161</v>
+        <v>1.666500309699345</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.517824771030695</v>
+        <v>1.636143142407749</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.319030760016343</v>
+        <v>1.643958300718776</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.540572072014812</v>
+        <v>1.386724397156957</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.339343388459043</v>
+        <v>1.434864036568604</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.430108719278826</v>
+        <v>1.421667521080142</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.25893909559767</v>
+        <v>1.40585800832931</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1.467148906558343</v>
+        <v>1.401394293054913</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.542363479527163</v>
+        <v>1.769549591930836</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.427631615115094</v>
+        <v>1.586698298935215</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.502583939176432</v>
+        <v>1.530218270947146</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.636883224192494</v>
+        <v>1.514840182932299</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.460485654207414</v>
+        <v>1.750055338009294</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.400491500360297</v>
+        <v>1.587303721604892</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.711078545104955</v>
+        <v>1.488624677646223</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.258674926611615</v>
+        <v>1.647022513452509</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.780191315234015</v>
+        <v>1.82437148436199</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.813872489602136</v>
+        <v>1.745594691099005</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.437016939374746</v>
+        <v>1.763526366751146</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.266895966546523</v>
+        <v>1.543173693908059</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.305009398077522</v>
+        <v>1.528511754381121</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.683996267013796</v>
+        <v>1.506819401389494</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.606516304599781</v>
+        <v>1.552161765547516</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.572735113295619</v>
+        <v>1.585897517639929</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.49481570482716</v>
+        <v>1.467308738979378</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.375726142405219</v>
+        <v>1.530777299951546</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.542750239440568</v>
+        <v>1.512581986634272</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.426182714056003</v>
+        <v>1.422152130299517</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.577036299834584</v>
+        <v>1.34651424033427</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.073122066936923</v>
+        <v>1.508098177059931</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.567882103935847</v>
+        <v>1.448979947578866</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.632442670749767</v>
+        <v>1.481249455908616</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.646626263424785</v>
+        <v>1.381877114392156</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.342009874233418</v>
+        <v>1.30546396745126</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.371651668390981</v>
+        <v>1.398597162199661</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.556154186016097</v>
+        <v>1.404443977682787</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.390002690577514</v>
+        <v>1.467763988285093</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.161981481611403</v>
+        <v>1.446146910701516</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.651805147664078</v>
+        <v>1.791194092863607</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.530605839648415</v>
+        <v>1.621702569847746</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.436007308683998</v>
+        <v>1.477720986119673</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.348414343933168</v>
+        <v>1.71386500397284</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.548926446253679</v>
+        <v>1.359328745332924</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.323698637311683</v>
+        <v>1.294603688230836</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.59484738538308</v>
+        <v>1.437290382568649</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.492919946765727</v>
+        <v>1.465015956245202</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.713621781884715</v>
+        <v>1.511786363536224</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.606989383622473</v>
+        <v>1.432653071612482</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.57486353346846</v>
+        <v>1.628923815970602</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.461057949221585</v>
+        <v>1.319579152506976</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.583386014662502</v>
+        <v>1.22386276995767</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.643031586724518</v>
+        <v>1.572280411664407</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.746055913776888</v>
+        <v>1.569559275993201</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.337199055356581</v>
+        <v>1.518612910786917</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.188658835202064</v>
+        <v>1.500044879516918</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.477497258282055</v>
+        <v>1.599693196992163</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.458150822428992</v>
+        <v>1.712095262488325</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.383942556956578</v>
+        <v>1.381082596453704</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.533202690277477</v>
+        <v>1.387399738144813</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.661744257141645</v>
+        <v>1.565140145914064</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.486586067096334</v>
+        <v>1.069154256276465</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.84682873105415</v>
+        <v>1.324491771140377</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.361923609393318</v>
+        <v>1.403889973027171</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.495230797914777</v>
+        <v>1.341797779313223</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1.606606286709336</v>
+        <v>1.366461917472979</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.396958299322153</v>
+        <v>1.799953459278558</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.435685017864669</v>
+        <v>1.657763296853599</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.58374288095321</v>
+        <v>1.421235713062301</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.548155144154181</v>
+        <v>1.682505149805003</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.644119493887704</v>
+        <v>1.565447548457416</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.583199547065904</v>
+        <v>1.57891492283461</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.4287931636663</v>
+        <v>1.565895612471118</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.668193884904411</v>
+        <v>1.34959231459247</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.527075220162188</v>
+        <v>1.653993768140223</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.448448560804551</v>
+        <v>1.565628634045023</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.337842869105342</v>
+        <v>1.59199303419991</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.583282861751786</v>
+        <v>1.075675851611068</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.565723741481306</v>
+        <v>1.472177383782105</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.467869884471184</v>
+        <v>1.359321520445689</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.597659767165685</v>
+        <v>1.565414776854992</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.561591456123414</v>
+        <v>1.478652991825632</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.42870519281316</v>
+        <v>1.73667440387989</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.504206137266382</v>
+        <v>1.136418055011052</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.523954157978157</v>
+        <v>1.649403909031001</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.554876729011935</v>
+        <v>1.500061532071175</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.492069141251656</v>
+        <v>1.50866481636798</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.703898948558422</v>
+        <v>1.428793548336764</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.583532809112467</v>
+        <v>1.636888915611007</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.453612310060134</v>
+        <v>1.611026669252893</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.379288050855977</v>
+        <v>1.579041898038708</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.357413170091209</v>
+        <v>1.421199146260502</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.382505389165598</v>
+        <v>1.600400227797782</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.49916695594879</v>
+        <v>1.441402102769823</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.357466898697139</v>
+        <v>1.480110919620077</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.505765463788382</v>
+        <v>1.379475611483609</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.402781847589412</v>
+        <v>1.427186694543708</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.128241346106188</v>
+        <v>1.578415249961115</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.377899653032486</v>
+        <v>1.802075510228857</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.930874885313776</v>
+        <v>1.648001575679811</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.694393749373692</v>
+        <v>1.5423415344437</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.555331991393888</v>
+        <v>1.484095434075209</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>1.373120916074784</v>
+        <v>1.374009927321542</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.55490150362279</v>
+        <v>1.811348776419122</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.518212850117069</v>
+        <v>1.452009134690611</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.671118512691502</v>
+        <v>1.437019395240341</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.294322233162505</v>
+        <v>1.521034179561498</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.299203926812414</v>
+        <v>1.503752378458854</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.452936883773913</v>
+        <v>1.467112253508525</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.425188973044014</v>
+        <v>1.17116364852547</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.682263699403049</v>
+        <v>1.285394858205633</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.537789980699519</v>
+        <v>1.486217215953148</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.678281914270411</v>
+        <v>1.479696605679812</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.531344685455706</v>
+        <v>1.721380576368116</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.388238185679509</v>
+        <v>1.349515086186576</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.748312556594743</v>
+        <v>1.509462185160777</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.616557424881307</v>
+        <v>1.922336456089812</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.638508986420532</v>
+        <v>1.582915915333063</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.667056123317321</v>
+        <v>1.545355508076281</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.409755015884213</v>
+        <v>1.553601940551671</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.615108994610153</v>
+        <v>1.70945353385879</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.4698089220666</v>
+        <v>1.221783252679036</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.527332292983279</v>
+        <v>1.087262532968156</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.618743366560365</v>
+        <v>1.740580429989715</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.452683968322451</v>
+        <v>1.54054410734413</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.546855361921574</v>
+        <v>1.703851573941365</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.499571730359918</v>
+        <v>1.618622994509735</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.551872542596374</v>
+        <v>1.46191597198815</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.392019002080941</v>
+        <v>1.172479901730879</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.519012391681795</v>
+        <v>1.545112475206343</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>1.691216147073386</v>
+        <v>1.731888113865001</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.384308052823061</v>
+        <v>1.546177922957209</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.529052153153373</v>
+        <v>1.524306871730584</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.361253538942585</v>
+        <v>1.403901349809322</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.543143876771816</v>
+        <v>1.32467537192265</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.200105759248305</v>
+        <v>1.388551847338241</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.494044855898147</v>
+        <v>1.729406028971148</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.619897881987289</v>
+        <v>1.699175866842284</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.723748696399126</v>
+        <v>1.688668020730417</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.278355505433987</v>
+        <v>1.750337705792533</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.884061874595434</v>
+        <v>1.545529127030566</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.520817442969411</v>
+        <v>1.473133501808583</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.613101836185272</v>
+        <v>1.45239565055263</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.589785694927876</v>
+        <v>1.425988157004657</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.350775905452124</v>
+        <v>1.307593735613505</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.673276774196594</v>
+        <v>1.543584279466403</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.867622850847256</v>
+        <v>1.443669397535789</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.521393463181026</v>
+        <v>1.331353344969781</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.303722295065179</v>
+        <v>1.781837216458894</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.533687520391234</v>
+        <v>1.441802715885087</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/23_localizer.xlsx
+++ b/sequences/23_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
   </si>
   <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
   </si>
   <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
   </si>
   <si>
     <t>flower/flower047.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
   </si>
   <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
   </si>
   <si>
     <t>flower/flower056.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
   </si>
   <si>
     <t>face/face063.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
   </si>
   <si>
     <t>flower/flower081.jpg</t>
   </si>
   <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
+    <t>face/face066.jpg</t>
   </si>
   <si>
     <t>face/face069.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
   </si>
   <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
   </si>
   <si>
     <t>flower/flower084.jpg</t>
   </si>
   <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
     <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.423544998970423</v>
+        <v>1.155032271011065</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.514154502338242</v>
+        <v>1.372229280136783</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.570445448929056</v>
+        <v>1.774986120327051</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.293653815205633</v>
+        <v>1.498999438015629</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.693716908033686</v>
+        <v>1.544488893573503</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.3988594231447</v>
+        <v>1.410056121905134</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.572763657545152</v>
+        <v>1.399323848741564</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.430316354326892</v>
+        <v>1.484119319645415</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.583321010012332</v>
+        <v>1.477666595064662</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.507257412348611</v>
+        <v>1.501776549202927</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.539873584442315</v>
+        <v>1.461776452200299</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.383263220030977</v>
+        <v>1.252331662421047</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.2584771720982</v>
+        <v>1.744592364846599</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.728541369412125</v>
+        <v>1.530534851443243</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.266623424538633</v>
+        <v>1.342774026987515</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.682795296145947</v>
+        <v>1.720438221040136</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.410196235744675</v>
+        <v>1.317859798590518</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.393841211180739</v>
+        <v>1.669873683226584</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.276739697225578</v>
+        <v>1.474119932444795</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.526310614488024</v>
+        <v>1.425247370029586</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.507303670181596</v>
+        <v>1.579546086501533</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.681765410818907</v>
+        <v>1.587812102829989</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.516078373671313</v>
+        <v>1.703886489722915</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.406040338779275</v>
+        <v>1.727877715069931</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.43817739628844</v>
+        <v>1.431395135261352</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.611898824906237</v>
+        <v>1.390411217663428</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.518146377352484</v>
+        <v>1.777257224499856</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.522740427969148</v>
+        <v>1.881176491555893</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.774583860577057</v>
+        <v>1.38001306880801</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.599841504201487</v>
+        <v>1.514497108023186</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.246030894170546</v>
+        <v>1.610082824385913</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.636498731976576</v>
+        <v>1.397526717703008</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.472667288248158</v>
+        <v>1.358243661597614</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.565747179907336</v>
+        <v>1.508945771947803</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.535197528231744</v>
+        <v>1.748448899884977</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.544482221506233</v>
+        <v>1.76406267699146</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.661703518535598</v>
+        <v>1.512267563889116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.57275019460834</v>
+        <v>1.717429458806314</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.504958038454232</v>
+        <v>1.410955657461788</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.630626987468987</v>
+        <v>1.66144657595261</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.636108807301932</v>
+        <v>1.518074162400815</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.684330122493944</v>
+        <v>1.456658122175165</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.554754862043028</v>
+        <v>1.512114710277109</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.709690995269938</v>
+        <v>1.53429613661038</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.534044726064949</v>
+        <v>1.553162437706976</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.390708016514465</v>
+        <v>1.495996882364866</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.775579066000168</v>
+        <v>1.600762274505593</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.438640315217805</v>
+        <v>1.473279793166393</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1.455629429988673</v>
+        <v>1.432634001006515</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.583910572627075</v>
+        <v>1.373964574431612</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.75246315583367</v>
+        <v>1.553867263450574</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.367335305429678</v>
+        <v>1.666234674182347</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.625195157988254</v>
+        <v>1.53826333679816</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.234427523756622</v>
+        <v>1.309325237855969</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.521713027800868</v>
+        <v>1.340142000127453</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.287840749866852</v>
+        <v>1.89806665309099</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.46621408096335</v>
+        <v>1.316301689216682</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.74531502671222</v>
+        <v>1.311789289193805</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.651170193375928</v>
+        <v>1.582176221855302</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.420648074240498</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.518451735209922</v>
+        <v>1.358708304569774</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.636178141241217</v>
+        <v>1.533750258951429</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.467955222720459</v>
+        <v>1.495308285461117</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.337694167192599</v>
+        <v>1.499500794710987</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.422504385854972</v>
+        <v>1.586361734795989</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.747700445969191</v>
+        <v>1.478565731465632</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.373480109674757</v>
+        <v>1.364091790520543</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.721167957277629</v>
+        <v>1.448730304138969</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.460435902231998</v>
+        <v>1.531542719722688</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.56228074834901</v>
+        <v>1.376602299030525</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.122353697136</v>
+        <v>1.561855987577643</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.666805197310512</v>
+        <v>1.556029759453645</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.498228689523381</v>
+        <v>1.250412749903037</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.537154011127271</v>
+        <v>1.358720698607081</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.527475802780561</v>
+        <v>1.582382300722809</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.59790800839428</v>
+        <v>1.444540853077757</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.764467535058658</v>
+        <v>1.461956608240908</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.363913953176446</v>
+        <v>1.793167353141386</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.595244448793694</v>
+        <v>1.499129386304024</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.489238679036186</v>
+        <v>1.515250862459503</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.628801684353965</v>
+        <v>1.650695889554747</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.506265850154223</v>
+        <v>1.677402423463439</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.429814405016139</v>
+        <v>1.43127438150765</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.620510249789545</v>
+        <v>1.648685531765107</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.590993539215926</v>
+        <v>1.451799269818957</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.580721114312211</v>
+        <v>1.427246256646119</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.637869650918038</v>
+        <v>1.689403655226555</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.500038421915196</v>
+        <v>1.475165558300081</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.626942263266749</v>
+        <v>1.56143678883361</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.220414115058527</v>
+        <v>1.391528135136991</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.553799956687731</v>
+        <v>1.739690346324979</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.723211131078004</v>
+        <v>1.272356277967603</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.421208437908198</v>
+        <v>1.561280694599743</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.470784498453653</v>
+        <v>1.821935364531833</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.71716703842162</v>
+        <v>1.273964583898529</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.454816127776425</v>
+        <v>1.646866745127751</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.392264340924595</v>
+        <v>1.568312637785728</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.392613750122505</v>
+        <v>1.589794529059318</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.577164002670939</v>
+        <v>1.596510504153321</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.532743551375554</v>
+        <v>1.608424536132958</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.489000448210358</v>
+        <v>1.524178242696665</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.521583745989861</v>
+        <v>1.549065242909387</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.467776467109234</v>
+        <v>1.82370299987327</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.554082264504588</v>
+        <v>1.675315073232438</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.562064709024686</v>
+        <v>1.669854463809906</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.323064516745422</v>
+        <v>1.513637147332644</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.273876785804012</v>
+        <v>1.400226722948093</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.666500309699345</v>
+        <v>1.556633962708203</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.636143142407749</v>
+        <v>1.396453067966223</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.643958300718776</v>
+        <v>1.651366150793698</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1.386724397156957</v>
+        <v>1.315373264202035</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.434864036568604</v>
+        <v>1.581559761398628</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.421667521080142</v>
+        <v>1.157713947291021</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.40585800832931</v>
+        <v>1.513212908428124</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.401394293054913</v>
+        <v>1.621326883329859</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.769549591930836</v>
+        <v>1.297422702265583</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.586698298935215</v>
+        <v>1.475435931960553</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.530218270947146</v>
+        <v>1.34356503347227</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.514840182932299</v>
+        <v>1.503692924071397</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.750055338009294</v>
+        <v>1.632115711203593</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.587303721604892</v>
+        <v>1.246852161764068</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.488624677646223</v>
+        <v>1.452521966270406</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.647022513452509</v>
+        <v>1.482061431956929</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.82437148436199</v>
+        <v>1.569440051713922</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.745594691099005</v>
+        <v>1.399477535565059</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.763526366751146</v>
+        <v>1.78598735444449</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.543173693908059</v>
+        <v>1.504102110421889</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.528511754381121</v>
+        <v>1.408596052737648</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.506819401389494</v>
+        <v>1.543927776856404</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.552161765547516</v>
+        <v>1.667239832777918</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.585897517639929</v>
+        <v>1.479370291705545</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.467308738979378</v>
+        <v>1.599622912509723</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.530777299951546</v>
+        <v>1.679130889442102</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.512581986634272</v>
+        <v>1.434128918654562</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.422152130299517</v>
+        <v>1.620026438853794</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.34651424033427</v>
+        <v>1.440054843759135</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.508098177059931</v>
+        <v>1.533906255808238</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.448979947578866</v>
+        <v>1.19611474511471</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.481249455908616</v>
+        <v>1.722292980273346</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.381877114392156</v>
+        <v>1.375689038663886</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.30546396745126</v>
+        <v>1.565053653313561</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.398597162199661</v>
+        <v>1.564322554219941</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.404443977682787</v>
+        <v>1.440665573783574</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.467763988285093</v>
+        <v>1.421490313285164</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.446146910701516</v>
+        <v>1.343609412130542</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.791194092863607</v>
+        <v>1.527363563151627</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.621702569847746</v>
+        <v>1.325698907946685</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.477720986119673</v>
+        <v>1.65486845196286</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.71386500397284</v>
+        <v>1.648297005676947</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.359328745332924</v>
+        <v>1.517698429381085</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.294603688230836</v>
+        <v>1.789558494329484</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.437290382568649</v>
+        <v>1.759637010428748</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.465015956245202</v>
+        <v>1.615216264426113</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.511786363536224</v>
+        <v>1.542773598512842</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.432653071612482</v>
+        <v>1.41778718831262</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.628923815970602</v>
+        <v>1.583931156427549</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.319579152506976</v>
+        <v>1.579167689344057</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.22386276995767</v>
+        <v>1.461457734869105</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.572280411664407</v>
+        <v>1.445131894359815</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.569559275993201</v>
+        <v>1.602099097489386</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.518612910786917</v>
+        <v>1.506096936818151</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.500044879516918</v>
+        <v>1.215831381611348</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.599693196992163</v>
+        <v>1.478762175073559</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.712095262488325</v>
+        <v>1.333187368084156</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.381082596453704</v>
+        <v>1.8886556563015</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.387399738144813</v>
+        <v>1.504667738118928</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.565140145914064</v>
+        <v>1.519514207671009</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.069154256276465</v>
+        <v>1.483568788028289</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.324491771140377</v>
+        <v>1.63352309958025</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.403889973027171</v>
+        <v>1.480999967897637</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.341797779313223</v>
+        <v>1.687726949447593</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.366461917472979</v>
+        <v>1.427161138745711</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.799953459278558</v>
+        <v>1.499542951099563</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.657763296853599</v>
+        <v>1.452545639964878</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.421235713062301</v>
+        <v>1.548628069095473</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.682505149805003</v>
+        <v>1.394221621470632</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.565447548457416</v>
+        <v>1.748913636110409</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.57891492283461</v>
+        <v>1.557819674987185</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.565895612471118</v>
+        <v>1.775022636508397</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.34959231459247</v>
+        <v>1.75868385852464</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.653993768140223</v>
+        <v>1.452778411677781</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.565628634045023</v>
+        <v>1.866797929287711</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.59199303419991</v>
+        <v>1.563987921922952</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.075675851611068</v>
+        <v>1.344951609090745</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.472177383782105</v>
+        <v>1.780087428121428</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.359321520445689</v>
+        <v>1.898939179621004</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>1.565414776854992</v>
+        <v>1.594277929276267</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.478652991825632</v>
+        <v>1.501758124480999</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.73667440387989</v>
+        <v>1.322148964344891</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.136418055011052</v>
+        <v>1.879652059722798</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.649403909031001</v>
+        <v>1.448895048895309</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.500061532071175</v>
+        <v>1.535489625215927</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.50866481636798</v>
+        <v>1.471376932093933</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.428793548336764</v>
+        <v>1.544232512371044</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.636888915611007</v>
+        <v>1.407531518726476</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.611026669252893</v>
+        <v>1.447964937668005</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.579041898038708</v>
+        <v>1.469655904469029</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.421199146260502</v>
+        <v>1.594381887686922</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.600400227797782</v>
+        <v>1.44006546347466</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.441402102769823</v>
+        <v>1.352791699937338</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.480110919620077</v>
+        <v>1.400725105921485</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.379475611483609</v>
+        <v>1.309857522196672</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.427186694543708</v>
+        <v>1.364887100393678</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.578415249961115</v>
+        <v>1.357297866736703</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.802075510228857</v>
+        <v>1.716416838280372</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.648001575679811</v>
+        <v>1.402499548442653</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.5423415344437</v>
+        <v>1.359613592241861</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.484095434075209</v>
+        <v>1.18639625681048</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.374009927321542</v>
+        <v>1.49942086130847</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.811348776419122</v>
+        <v>1.476950184475259</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.452009134690611</v>
+        <v>1.688565890368404</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.437019395240341</v>
+        <v>1.121514679878888</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.521034179561498</v>
+        <v>1.532486509130879</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.503752378458854</v>
+        <v>1.450364584921329</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.467112253508525</v>
+        <v>1.359074089947451</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.17116364852547</v>
+        <v>1.433374180434304</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.285394858205633</v>
+        <v>1.564207755382917</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.486217215953148</v>
+        <v>1.461934246519288</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.479696605679812</v>
+        <v>1.577091011106147</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.721380576368116</v>
+        <v>1.543419796479039</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.349515086186576</v>
+        <v>1.693177288650283</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.509462185160777</v>
+        <v>1.801007065039758</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.922336456089812</v>
+        <v>1.269629043955792</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.582915915333063</v>
+        <v>1.737058952374489</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.545355508076281</v>
+        <v>1.67008119788692</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.553601940551671</v>
+        <v>1.486775439413538</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.70945353385879</v>
+        <v>1.516226903424633</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.221783252679036</v>
+        <v>1.439741127703988</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.087262532968156</v>
+        <v>1.13169332164701</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.740580429989715</v>
+        <v>1.372867832904591</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.54054410734413</v>
+        <v>1.760883549964434</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.703851573941365</v>
+        <v>1.576013138826378</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.618622994509735</v>
+        <v>1.292827481873101</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.46191597198815</v>
+        <v>1.341472442994059</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.172479901730879</v>
+        <v>1.672310654328916</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.545112475206343</v>
+        <v>1.432397018938169</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.731888113865001</v>
+        <v>1.625674552964094</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.546177922957209</v>
+        <v>1.535334045054891</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.524306871730584</v>
+        <v>1.62819923365004</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.403901349809322</v>
+        <v>1.501135887548397</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.32467537192265</v>
+        <v>1.273961335061355</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.388551847338241</v>
+        <v>1.427725604524853</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.729406028971148</v>
+        <v>1.188603377200718</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.699175866842284</v>
+        <v>1.450581094061872</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.688668020730417</v>
+        <v>1.639574864393789</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.750337705792533</v>
+        <v>1.874018774436253</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.545529127030566</v>
+        <v>1.430793438024847</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.473133501808583</v>
+        <v>1.438256489037746</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.45239565055263</v>
+        <v>1.316311742623991</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.425988157004657</v>
+        <v>1.453266092803007</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.307593735613505</v>
+        <v>1.331422507770572</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.543584279466403</v>
+        <v>1.637278911354784</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.443669397535789</v>
+        <v>1.507183576531403</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.331353344969781</v>
+        <v>1.411193042225754</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.781837216458894</v>
+        <v>1.660096814524363</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.441802715885087</v>
+        <v>1.482745049099737</v>
       </c>
     </row>
   </sheetData>
